--- a/templates/BA Penerimaan Prakualifikasi.xlsx
+++ b/templates/BA Penerimaan Prakualifikasi.xlsx
@@ -364,7 +364,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -452,7 +452,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,9 +460,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -476,14 +472,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,37 +541,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -581,20 +562,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12294,8 +12287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12309,35 +12302,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
+      <c r="A2" s="95">
         <f>[1]BA!A11</f>
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -12353,47 +12346,47 @@
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="74" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
@@ -12403,9 +12396,9 @@
       <c r="H7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
@@ -12417,27 +12410,27 @@
       <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="20"/>
       <c r="G8" s="5"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="20"/>
       <c r="G9" s="4"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -12447,53 +12440,53 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="20"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="20"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="20"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="20"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -12503,14 +12496,14 @@
       <c r="C14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="20"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
@@ -12520,14 +12513,14 @@
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="20"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -12537,14 +12530,14 @@
       <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -12554,14 +12547,14 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="20"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -12571,14 +12564,14 @@
       <c r="C18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="20"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -12588,14 +12581,14 @@
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="20"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
@@ -12606,9 +12599,9 @@
       <c r="F20" s="23"/>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
@@ -12620,27 +12613,27 @@
       <c r="C21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="18"/>
       <c r="G21" s="15"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="100"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="20"/>
       <c r="G22" s="4"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
@@ -12650,53 +12643,53 @@
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="20"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="20"/>
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="20"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="20"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
@@ -12706,14 +12699,14 @@
       <c r="C27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -12723,14 +12716,14 @@
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="20"/>
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="83"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -12740,14 +12733,14 @@
       <c r="C29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="20"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
@@ -12757,14 +12750,14 @@
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="20"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
@@ -12774,14 +12767,14 @@
       <c r="C31" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="20"/>
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="94"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
@@ -12791,14 +12784,14 @@
       <c r="C32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="20"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="94"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
@@ -12809,37 +12802,37 @@
       <c r="F33" s="23"/>
       <c r="G33" s="11"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="97"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="74" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="75"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="66" t="s">
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77"/>
     </row>
     <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="37" t="s">
         <v>6</v>
       </c>
@@ -12849,9 +12842,9 @@
       <c r="H37" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="67"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
@@ -12868,22 +12861,22 @@
       <c r="F38" s="29"/>
       <c r="G38" s="15"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="47"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="33"/>
       <c r="G39" s="4"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="52"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="83"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
@@ -12898,48 +12891,48 @@
       <c r="F40" s="33"/>
       <c r="G40" s="4"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="52"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="33"/>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="52"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="83"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
       <c r="F42" s="33"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="52"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="83"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="33"/>
       <c r="G43" s="4"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="52"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="83"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
@@ -12949,14 +12942,14 @@
       <c r="C44" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="56"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="33"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="52"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
@@ -12966,14 +12959,14 @@
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="56"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
       <c r="F45" s="33"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="52"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="83"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -12983,14 +12976,14 @@
       <c r="C46" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="58"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="33"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="52"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="83"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -13000,14 +12993,14 @@
       <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="56"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="33"/>
       <c r="G47" s="4"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="52"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="83"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
@@ -13017,14 +13010,14 @@
       <c r="C48" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="52"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="83"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -13034,14 +13027,14 @@
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="52"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="83"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
@@ -13052,9 +13045,9 @@
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="63"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="86"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
@@ -13071,22 +13064,22 @@
       <c r="F51" s="32"/>
       <c r="G51" s="15"/>
       <c r="H51" s="30"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="47"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
       <c r="B52" s="8"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="21"/>
       <c r="G52" s="4"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="52"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="83"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
@@ -13101,48 +13094,48 @@
       <c r="F53" s="21"/>
       <c r="G53" s="4"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="52"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="83"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="21"/>
       <c r="G54" s="4"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="52"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="83"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="21"/>
       <c r="G55" s="4"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="52"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="83"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="21"/>
       <c r="G56" s="4"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="52"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="83"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
@@ -13152,14 +13145,14 @@
       <c r="C57" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
       <c r="F57" s="21"/>
       <c r="G57" s="4"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="83"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
@@ -13169,14 +13162,14 @@
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="56"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
       <c r="F58" s="21"/>
       <c r="G58" s="4"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="52"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="83"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
@@ -13186,14 +13179,14 @@
       <c r="C59" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="58"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
       <c r="F59" s="21"/>
       <c r="G59" s="4"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="52"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="83"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
@@ -13203,14 +13196,14 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="56"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
       <c r="F60" s="21"/>
       <c r="G60" s="4"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="52"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="83"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
@@ -13220,14 +13213,14 @@
       <c r="C61" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="60"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="52"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="83"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
@@ -13237,14 +13230,14 @@
       <c r="C62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="47"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="52"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="83"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
@@ -13255,37 +13248,37 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="63"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="86"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="68" t="s">
+      <c r="B70" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="74" t="s">
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="75"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="66" t="s">
+      <c r="G70" s="74"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J70" s="77"/>
-      <c r="K70" s="78"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="77"/>
     </row>
     <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="73"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="37" t="s">
         <v>6</v>
       </c>
@@ -13295,9 +13288,9 @@
       <c r="H71" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="67"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="80"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="79"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
@@ -13309,27 +13302,27 @@
       <c r="C72" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="82"/>
-      <c r="E72" s="83"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90"/>
       <c r="F72" s="32"/>
       <c r="G72" s="15"/>
       <c r="H72" s="30"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="100"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="64"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="8"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="85"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="92"/>
       <c r="F73" s="21"/>
       <c r="G73" s="4"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="94"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="83"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
@@ -13339,53 +13332,53 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="86"/>
-      <c r="E74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="88"/>
       <c r="F74" s="21"/>
       <c r="G74" s="4"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="94"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="83"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="88"/>
       <c r="F75" s="21"/>
       <c r="G75" s="4"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="93"/>
-      <c r="K75" s="94"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="83"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="88"/>
       <c r="F76" s="21"/>
       <c r="G76" s="4"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="92"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="94"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="83"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="88"/>
       <c r="F77" s="21"/>
       <c r="G77" s="4"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="94"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="83"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
@@ -13395,14 +13388,14 @@
       <c r="C78" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="88"/>
-      <c r="E78" s="89"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="21"/>
       <c r="G78" s="4"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="94"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="83"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
@@ -13412,14 +13405,14 @@
       <c r="C79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="88"/>
-      <c r="E79" s="89"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="21"/>
       <c r="G79" s="4"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="93"/>
-      <c r="K79" s="94"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="83"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
@@ -13429,14 +13422,14 @@
       <c r="C80" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="90"/>
-      <c r="E80" s="91"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="21"/>
       <c r="G80" s="4"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="92"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="94"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="83"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
@@ -13446,14 +13439,14 @@
       <c r="C81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="88"/>
-      <c r="E81" s="89"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="21"/>
       <c r="G81" s="4"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="93"/>
-      <c r="K81" s="94"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="83"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
@@ -13463,14 +13456,14 @@
       <c r="C82" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="101"/>
-      <c r="E82" s="102"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="93"/>
-      <c r="K82" s="94"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="82"/>
+      <c r="K82" s="83"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
@@ -13480,14 +13473,14 @@
       <c r="C83" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="99"/>
-      <c r="E83" s="100"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="93"/>
-      <c r="K83" s="94"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="82"/>
+      <c r="K83" s="83"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
@@ -13498,9 +13491,9 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="95"/>
-      <c r="J84" s="96"/>
-      <c r="K84" s="97"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="86"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
@@ -13512,27 +13505,27 @@
       <c r="C85" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="82"/>
-      <c r="E85" s="83"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="90"/>
       <c r="F85" s="32"/>
       <c r="G85" s="15"/>
       <c r="H85" s="30"/>
-      <c r="I85" s="98"/>
-      <c r="J85" s="99"/>
-      <c r="K85" s="100"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="64"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="8"/>
       <c r="C86" s="10"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="85"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="21"/>
       <c r="G86" s="4"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="94"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="82"/>
+      <c r="K86" s="83"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
@@ -13542,53 +13535,53 @@
       <c r="C87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="86"/>
-      <c r="E87" s="87"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="88"/>
       <c r="F87" s="21"/>
       <c r="G87" s="4"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="94"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="83"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="87"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="88"/>
       <c r="F88" s="21"/>
       <c r="G88" s="4"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="92"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="94"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="83"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="88"/>
       <c r="F89" s="21"/>
       <c r="G89" s="4"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="92"/>
-      <c r="J89" s="93"/>
-      <c r="K89" s="94"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="83"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="86"/>
-      <c r="E90" s="87"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="88"/>
       <c r="F90" s="21"/>
       <c r="G90" s="4"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="92"/>
-      <c r="J90" s="93"/>
-      <c r="K90" s="94"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="82"/>
+      <c r="K90" s="83"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
@@ -13598,14 +13591,14 @@
       <c r="C91" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="21"/>
       <c r="G91" s="4"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="92"/>
-      <c r="J91" s="93"/>
-      <c r="K91" s="94"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="83"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
@@ -13615,14 +13608,14 @@
       <c r="C92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="89"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="21"/>
       <c r="G92" s="4"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="93"/>
-      <c r="K92" s="94"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="82"/>
+      <c r="K92" s="83"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
@@ -13632,14 +13625,14 @@
       <c r="C93" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="90"/>
-      <c r="E93" s="91"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="58"/>
       <c r="F93" s="21"/>
       <c r="G93" s="4"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="93"/>
-      <c r="K93" s="94"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="83"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
@@ -13649,14 +13642,14 @@
       <c r="C94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="89"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="60"/>
       <c r="F94" s="21"/>
       <c r="G94" s="4"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="93"/>
-      <c r="K94" s="94"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="82"/>
+      <c r="K94" s="83"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
@@ -13666,14 +13659,14 @@
       <c r="C95" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="101"/>
-      <c r="E95" s="102"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="62"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="93"/>
-      <c r="K95" s="94"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="82"/>
+      <c r="K95" s="83"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
@@ -13683,14 +13676,14 @@
       <c r="C96" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="99"/>
-      <c r="E96" s="100"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="64"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="92"/>
-      <c r="J96" s="93"/>
-      <c r="K96" s="94"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="83"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
@@ -13701,37 +13694,37 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="95"/>
-      <c r="J97" s="96"/>
-      <c r="K97" s="97"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="86"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="66" t="s">
+      <c r="A104" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="68" t="s">
+      <c r="B104" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="74" t="s">
+      <c r="C104" s="68"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="75"/>
-      <c r="H104" s="76"/>
-      <c r="I104" s="66" t="s">
+      <c r="G104" s="74"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J104" s="77"/>
-      <c r="K104" s="78"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="77"/>
     </row>
     <row r="105" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="73"/>
+      <c r="A105" s="66"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="72"/>
       <c r="F105" s="37" t="s">
         <v>6</v>
       </c>
@@ -13741,9 +13734,9 @@
       <c r="H105" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="67"/>
-      <c r="J105" s="79"/>
-      <c r="K105" s="80"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="79"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
@@ -13755,27 +13748,27 @@
       <c r="C106" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="82"/>
-      <c r="E106" s="83"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="90"/>
       <c r="F106" s="32"/>
       <c r="G106" s="15"/>
       <c r="H106" s="30"/>
-      <c r="I106" s="98"/>
-      <c r="J106" s="99"/>
-      <c r="K106" s="100"/>
+      <c r="I106" s="80"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="64"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="8"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="85"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="92"/>
       <c r="F107" s="21"/>
       <c r="G107" s="4"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="92"/>
-      <c r="J107" s="93"/>
-      <c r="K107" s="94"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="83"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
@@ -13785,53 +13778,53 @@
       <c r="C108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="86"/>
-      <c r="E108" s="87"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="88"/>
       <c r="F108" s="21"/>
       <c r="G108" s="4"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="92"/>
-      <c r="J108" s="93"/>
-      <c r="K108" s="94"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="83"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="86"/>
-      <c r="E109" s="87"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="88"/>
       <c r="F109" s="21"/>
       <c r="G109" s="4"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="92"/>
-      <c r="J109" s="93"/>
-      <c r="K109" s="94"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="82"/>
+      <c r="K109" s="83"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="86"/>
-      <c r="E110" s="87"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="88"/>
       <c r="F110" s="21"/>
       <c r="G110" s="4"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="92"/>
-      <c r="J110" s="93"/>
-      <c r="K110" s="94"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="83"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="87"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="21"/>
       <c r="G111" s="4"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="92"/>
-      <c r="J111" s="93"/>
-      <c r="K111" s="94"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="83"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
@@ -13841,14 +13834,14 @@
       <c r="C112" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="88"/>
-      <c r="E112" s="89"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="60"/>
       <c r="F112" s="21"/>
       <c r="G112" s="4"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="92"/>
-      <c r="J112" s="93"/>
-      <c r="K112" s="94"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="83"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
@@ -13858,14 +13851,14 @@
       <c r="C113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="88"/>
-      <c r="E113" s="89"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="60"/>
       <c r="F113" s="21"/>
       <c r="G113" s="4"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="92"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="94"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="82"/>
+      <c r="K113" s="83"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
@@ -13875,14 +13868,14 @@
       <c r="C114" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="90"/>
-      <c r="E114" s="91"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="58"/>
       <c r="F114" s="21"/>
       <c r="G114" s="4"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="92"/>
-      <c r="J114" s="93"/>
-      <c r="K114" s="94"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="83"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
@@ -13892,14 +13885,14 @@
       <c r="C115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="88"/>
-      <c r="E115" s="89"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="60"/>
       <c r="F115" s="21"/>
       <c r="G115" s="4"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="92"/>
-      <c r="J115" s="93"/>
-      <c r="K115" s="94"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="82"/>
+      <c r="K115" s="83"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
@@ -13909,14 +13902,14 @@
       <c r="C116" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="101"/>
-      <c r="E116" s="102"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="62"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="92"/>
-      <c r="J116" s="93"/>
-      <c r="K116" s="94"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="82"/>
+      <c r="K116" s="83"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
@@ -13926,14 +13919,14 @@
       <c r="C117" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="99"/>
-      <c r="E117" s="100"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="64"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="92"/>
-      <c r="J117" s="93"/>
-      <c r="K117" s="94"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="82"/>
+      <c r="K117" s="83"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
@@ -13944,9 +13937,9 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="95"/>
-      <c r="J118" s="96"/>
-      <c r="K118" s="97"/>
+      <c r="I118" s="84"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="86"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
@@ -13958,27 +13951,27 @@
       <c r="C119" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="82"/>
-      <c r="E119" s="83"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="90"/>
       <c r="F119" s="32"/>
       <c r="G119" s="15"/>
       <c r="H119" s="30"/>
-      <c r="I119" s="98"/>
-      <c r="J119" s="99"/>
-      <c r="K119" s="100"/>
+      <c r="I119" s="80"/>
+      <c r="J119" s="63"/>
+      <c r="K119" s="64"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="8"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="85"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="92"/>
       <c r="F120" s="21"/>
       <c r="G120" s="4"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="92"/>
-      <c r="J120" s="93"/>
-      <c r="K120" s="94"/>
+      <c r="I120" s="81"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="83"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
@@ -13988,53 +13981,53 @@
       <c r="C121" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="86"/>
-      <c r="E121" s="87"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="88"/>
       <c r="F121" s="21"/>
       <c r="G121" s="4"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="92"/>
-      <c r="J121" s="93"/>
-      <c r="K121" s="94"/>
+      <c r="I121" s="81"/>
+      <c r="J121" s="82"/>
+      <c r="K121" s="83"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="1"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="87"/>
+      <c r="D122" s="87"/>
+      <c r="E122" s="88"/>
       <c r="F122" s="21"/>
       <c r="G122" s="4"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="92"/>
-      <c r="J122" s="93"/>
-      <c r="K122" s="94"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="82"/>
+      <c r="K122" s="83"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="86"/>
-      <c r="E123" s="87"/>
+      <c r="D123" s="87"/>
+      <c r="E123" s="88"/>
       <c r="F123" s="21"/>
       <c r="G123" s="4"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="92"/>
-      <c r="J123" s="93"/>
-      <c r="K123" s="94"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="82"/>
+      <c r="K123" s="83"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="1"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="86"/>
-      <c r="E124" s="87"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="88"/>
       <c r="F124" s="21"/>
       <c r="G124" s="4"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="92"/>
-      <c r="J124" s="93"/>
-      <c r="K124" s="94"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="82"/>
+      <c r="K124" s="83"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
@@ -14044,14 +14037,14 @@
       <c r="C125" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="88"/>
-      <c r="E125" s="89"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="60"/>
       <c r="F125" s="21"/>
       <c r="G125" s="4"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="93"/>
-      <c r="K125" s="94"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="82"/>
+      <c r="K125" s="83"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
@@ -14061,14 +14054,14 @@
       <c r="C126" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="88"/>
-      <c r="E126" s="89"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="60"/>
       <c r="F126" s="21"/>
       <c r="G126" s="4"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="92"/>
-      <c r="J126" s="93"/>
-      <c r="K126" s="94"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="82"/>
+      <c r="K126" s="83"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
@@ -14078,14 +14071,14 @@
       <c r="C127" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="90"/>
-      <c r="E127" s="91"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="58"/>
       <c r="F127" s="21"/>
       <c r="G127" s="4"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="92"/>
-      <c r="J127" s="93"/>
-      <c r="K127" s="94"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="82"/>
+      <c r="K127" s="83"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
@@ -14095,14 +14088,14 @@
       <c r="C128" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="88"/>
-      <c r="E128" s="89"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="60"/>
       <c r="F128" s="21"/>
       <c r="G128" s="4"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="92"/>
-      <c r="J128" s="93"/>
-      <c r="K128" s="94"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="82"/>
+      <c r="K128" s="83"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
@@ -14112,14 +14105,14 @@
       <c r="C129" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="101"/>
-      <c r="E129" s="102"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="62"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="92"/>
-      <c r="J129" s="93"/>
-      <c r="K129" s="94"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="82"/>
+      <c r="K129" s="83"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
@@ -14129,14 +14122,14 @@
       <c r="C130" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="99"/>
-      <c r="E130" s="100"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="64"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="92"/>
-      <c r="J130" s="93"/>
-      <c r="K130" s="94"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="82"/>
+      <c r="K130" s="83"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="22"/>
@@ -14147,37 +14140,37 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="95"/>
-      <c r="J131" s="96"/>
-      <c r="K131" s="97"/>
+      <c r="I131" s="84"/>
+      <c r="J131" s="85"/>
+      <c r="K131" s="86"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="66" t="s">
+      <c r="A138" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="68" t="s">
+      <c r="B138" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="69"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="70"/>
-      <c r="F138" s="74" t="s">
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="75"/>
-      <c r="H138" s="76"/>
-      <c r="I138" s="66" t="s">
+      <c r="G138" s="74"/>
+      <c r="H138" s="75"/>
+      <c r="I138" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J138" s="77"/>
-      <c r="K138" s="78"/>
+      <c r="J138" s="76"/>
+      <c r="K138" s="77"/>
     </row>
     <row r="139" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="72"/>
-      <c r="D139" s="72"/>
-      <c r="E139" s="73"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="72"/>
       <c r="F139" s="37" t="s">
         <v>6</v>
       </c>
@@ -14187,9 +14180,9 @@
       <c r="H139" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I139" s="67"/>
-      <c r="J139" s="79"/>
-      <c r="K139" s="80"/>
+      <c r="I139" s="66"/>
+      <c r="J139" s="78"/>
+      <c r="K139" s="79"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
@@ -14201,27 +14194,27 @@
       <c r="C140" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="82"/>
-      <c r="E140" s="83"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="90"/>
       <c r="F140" s="32"/>
       <c r="G140" s="15"/>
       <c r="H140" s="30"/>
-      <c r="I140" s="98"/>
-      <c r="J140" s="99"/>
-      <c r="K140" s="100"/>
+      <c r="I140" s="80"/>
+      <c r="J140" s="63"/>
+      <c r="K140" s="64"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="8"/>
       <c r="C141" s="10"/>
-      <c r="D141" s="84"/>
-      <c r="E141" s="85"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="92"/>
       <c r="F141" s="21"/>
       <c r="G141" s="4"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="92"/>
-      <c r="J141" s="93"/>
-      <c r="K141" s="94"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="82"/>
+      <c r="K141" s="83"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
@@ -14231,53 +14224,53 @@
       <c r="C142" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="86"/>
-      <c r="E142" s="87"/>
+      <c r="D142" s="87"/>
+      <c r="E142" s="88"/>
       <c r="F142" s="21"/>
       <c r="G142" s="4"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="92"/>
-      <c r="J142" s="93"/>
-      <c r="K142" s="94"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="82"/>
+      <c r="K142" s="83"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="86"/>
-      <c r="E143" s="87"/>
+      <c r="D143" s="87"/>
+      <c r="E143" s="88"/>
       <c r="F143" s="21"/>
       <c r="G143" s="4"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="92"/>
-      <c r="J143" s="93"/>
-      <c r="K143" s="94"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="82"/>
+      <c r="K143" s="83"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="86"/>
-      <c r="E144" s="87"/>
+      <c r="D144" s="87"/>
+      <c r="E144" s="88"/>
       <c r="F144" s="21"/>
       <c r="G144" s="4"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="92"/>
-      <c r="J144" s="93"/>
-      <c r="K144" s="94"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="82"/>
+      <c r="K144" s="83"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="86"/>
-      <c r="E145" s="87"/>
+      <c r="D145" s="87"/>
+      <c r="E145" s="88"/>
       <c r="F145" s="21"/>
       <c r="G145" s="4"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="92"/>
-      <c r="J145" s="93"/>
-      <c r="K145" s="94"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="83"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
@@ -14287,14 +14280,14 @@
       <c r="C146" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="88"/>
-      <c r="E146" s="89"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="60"/>
       <c r="F146" s="21"/>
       <c r="G146" s="4"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="92"/>
-      <c r="J146" s="93"/>
-      <c r="K146" s="94"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="82"/>
+      <c r="K146" s="83"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
@@ -14304,14 +14297,14 @@
       <c r="C147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="88"/>
-      <c r="E147" s="89"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="60"/>
       <c r="F147" s="21"/>
       <c r="G147" s="4"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="92"/>
-      <c r="J147" s="93"/>
-      <c r="K147" s="94"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="82"/>
+      <c r="K147" s="83"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
@@ -14321,14 +14314,14 @@
       <c r="C148" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="90"/>
-      <c r="E148" s="91"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="58"/>
       <c r="F148" s="21"/>
       <c r="G148" s="4"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="92"/>
-      <c r="J148" s="93"/>
-      <c r="K148" s="94"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="83"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
@@ -14338,14 +14331,14 @@
       <c r="C149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D149" s="88"/>
-      <c r="E149" s="89"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="60"/>
       <c r="F149" s="21"/>
       <c r="G149" s="4"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="92"/>
-      <c r="J149" s="93"/>
-      <c r="K149" s="94"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="82"/>
+      <c r="K149" s="83"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
@@ -14355,14 +14348,14 @@
       <c r="C150" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D150" s="101"/>
-      <c r="E150" s="102"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="62"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="2"/>
-      <c r="I150" s="92"/>
-      <c r="J150" s="93"/>
-      <c r="K150" s="94"/>
+      <c r="I150" s="81"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="83"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
@@ -14372,14 +14365,14 @@
       <c r="C151" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="99"/>
-      <c r="E151" s="100"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="64"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="92"/>
-      <c r="J151" s="93"/>
-      <c r="K151" s="94"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="83"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="22"/>
@@ -14390,9 +14383,9 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="95"/>
-      <c r="J152" s="96"/>
-      <c r="K152" s="97"/>
+      <c r="I152" s="84"/>
+      <c r="J152" s="85"/>
+      <c r="K152" s="86"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
@@ -14404,27 +14397,27 @@
       <c r="C153" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D153" s="82"/>
-      <c r="E153" s="83"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="90"/>
       <c r="F153" s="32"/>
       <c r="G153" s="15"/>
       <c r="H153" s="30"/>
-      <c r="I153" s="98"/>
-      <c r="J153" s="99"/>
-      <c r="K153" s="100"/>
+      <c r="I153" s="80"/>
+      <c r="J153" s="63"/>
+      <c r="K153" s="64"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="8"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="84"/>
-      <c r="E154" s="85"/>
+      <c r="D154" s="91"/>
+      <c r="E154" s="92"/>
       <c r="F154" s="21"/>
       <c r="G154" s="4"/>
       <c r="H154" s="12"/>
-      <c r="I154" s="92"/>
-      <c r="J154" s="93"/>
-      <c r="K154" s="94"/>
+      <c r="I154" s="81"/>
+      <c r="J154" s="82"/>
+      <c r="K154" s="83"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
@@ -14434,53 +14427,53 @@
       <c r="C155" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="86"/>
-      <c r="E155" s="87"/>
+      <c r="D155" s="87"/>
+      <c r="E155" s="88"/>
       <c r="F155" s="21"/>
       <c r="G155" s="4"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="92"/>
-      <c r="J155" s="93"/>
-      <c r="K155" s="94"/>
+      <c r="I155" s="81"/>
+      <c r="J155" s="82"/>
+      <c r="K155" s="83"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="86"/>
-      <c r="E156" s="87"/>
+      <c r="D156" s="87"/>
+      <c r="E156" s="88"/>
       <c r="F156" s="21"/>
       <c r="G156" s="4"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="92"/>
-      <c r="J156" s="93"/>
-      <c r="K156" s="94"/>
+      <c r="I156" s="81"/>
+      <c r="J156" s="82"/>
+      <c r="K156" s="83"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="86"/>
-      <c r="E157" s="87"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="88"/>
       <c r="F157" s="21"/>
       <c r="G157" s="4"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="92"/>
-      <c r="J157" s="93"/>
-      <c r="K157" s="94"/>
+      <c r="I157" s="81"/>
+      <c r="J157" s="82"/>
+      <c r="K157" s="83"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="86"/>
-      <c r="E158" s="87"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="88"/>
       <c r="F158" s="21"/>
       <c r="G158" s="4"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="92"/>
-      <c r="J158" s="93"/>
-      <c r="K158" s="94"/>
+      <c r="I158" s="81"/>
+      <c r="J158" s="82"/>
+      <c r="K158" s="83"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
@@ -14490,14 +14483,14 @@
       <c r="C159" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D159" s="88"/>
-      <c r="E159" s="89"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="60"/>
       <c r="F159" s="21"/>
       <c r="G159" s="4"/>
       <c r="H159" s="2"/>
-      <c r="I159" s="92"/>
-      <c r="J159" s="93"/>
-      <c r="K159" s="94"/>
+      <c r="I159" s="81"/>
+      <c r="J159" s="82"/>
+      <c r="K159" s="83"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
@@ -14507,14 +14500,14 @@
       <c r="C160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="88"/>
-      <c r="E160" s="89"/>
+      <c r="D160" s="59"/>
+      <c r="E160" s="60"/>
       <c r="F160" s="21"/>
       <c r="G160" s="4"/>
       <c r="H160" s="2"/>
-      <c r="I160" s="92"/>
-      <c r="J160" s="93"/>
-      <c r="K160" s="94"/>
+      <c r="I160" s="81"/>
+      <c r="J160" s="82"/>
+      <c r="K160" s="83"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
@@ -14524,14 +14517,14 @@
       <c r="C161" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="90"/>
-      <c r="E161" s="91"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="58"/>
       <c r="F161" s="21"/>
       <c r="G161" s="4"/>
       <c r="H161" s="2"/>
-      <c r="I161" s="92"/>
-      <c r="J161" s="93"/>
-      <c r="K161" s="94"/>
+      <c r="I161" s="81"/>
+      <c r="J161" s="82"/>
+      <c r="K161" s="83"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
@@ -14541,14 +14534,14 @@
       <c r="C162" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="88"/>
-      <c r="E162" s="89"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="60"/>
       <c r="F162" s="21"/>
       <c r="G162" s="4"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="92"/>
-      <c r="J162" s="93"/>
-      <c r="K162" s="94"/>
+      <c r="I162" s="81"/>
+      <c r="J162" s="82"/>
+      <c r="K162" s="83"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
@@ -14558,14 +14551,14 @@
       <c r="C163" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="101"/>
-      <c r="E163" s="102"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="62"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="2"/>
-      <c r="I163" s="92"/>
-      <c r="J163" s="93"/>
-      <c r="K163" s="94"/>
+      <c r="I163" s="81"/>
+      <c r="J163" s="82"/>
+      <c r="K163" s="83"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
@@ -14575,14 +14568,14 @@
       <c r="C164" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D164" s="99"/>
-      <c r="E164" s="100"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="64"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="2"/>
-      <c r="I164" s="92"/>
-      <c r="J164" s="93"/>
-      <c r="K164" s="94"/>
+      <c r="I164" s="81"/>
+      <c r="J164" s="82"/>
+      <c r="K164" s="83"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
@@ -14593,17 +14586,88 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="9"/>
-      <c r="I165" s="95"/>
-      <c r="J165" s="96"/>
-      <c r="K165" s="97"/>
+      <c r="I165" s="84"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D91:E91"/>
+  <mergeCells count="97">
+    <mergeCell ref="I38:K50"/>
+    <mergeCell ref="I51:K63"/>
+    <mergeCell ref="I36:K37"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I8:K20"/>
+    <mergeCell ref="I21:K33"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D10:E13"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D85:E86"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="I72:K84"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D108:E111"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:E77"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D153:E154"/>
+    <mergeCell ref="I153:K165"/>
+    <mergeCell ref="D155:E158"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D140:E141"/>
+    <mergeCell ref="D142:E145"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D119:E120"/>
+    <mergeCell ref="I119:K131"/>
+    <mergeCell ref="D121:E124"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="I140:K152"/>
     <mergeCell ref="A138:A139"/>
     <mergeCell ref="B138:E139"/>
     <mergeCell ref="F138:H138"/>
@@ -14620,80 +14684,11 @@
     <mergeCell ref="D87:E90"/>
     <mergeCell ref="D106:E107"/>
     <mergeCell ref="I106:K118"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D119:E120"/>
-    <mergeCell ref="I119:K131"/>
-    <mergeCell ref="D121:E124"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="I140:K152"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D140:E141"/>
-    <mergeCell ref="D142:E145"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D153:E154"/>
-    <mergeCell ref="I153:K165"/>
-    <mergeCell ref="D155:E158"/>
-    <mergeCell ref="D85:E86"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="I72:K84"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D108:E111"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:E77"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I8:K20"/>
-    <mergeCell ref="I21:K33"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D10:E13"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K37"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D91:E91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/templates/BA Penerimaan Prakualifikasi.xlsx
+++ b/templates/BA Penerimaan Prakualifikasi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
@@ -9,10 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -115,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,22 +469,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,11 +478,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,65 +565,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11975,27 +11972,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Penerimaan"/>
-      <sheetName val="BA"/>
-      <sheetName val="Resume"/>
-      <sheetName val="Adm"/>
-      <sheetName val="Comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12073,7 +12049,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12108,7 +12083,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12284,14 +12258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:K63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -12301,38 +12275,35 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="95">
-        <f>[1]BA!A11</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18">
       <c r="A3" s="26"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -12345,48 +12316,48 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="73" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="65" t="s">
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
-    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
+    <row r="7" spans="1:11" ht="24">
+      <c r="A7" s="69"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
@@ -12396,11 +12367,11 @@
       <c r="H7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -12410,29 +12381,29 @@
       <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="20"/>
       <c r="G8" s="5"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="20"/>
       <c r="G9" s="4"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -12440,55 +12411,55 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="20"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="19"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="20"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="19"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="20"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="19"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="20"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="19"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
@@ -12496,16 +12467,16 @@
       <c r="C14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="20"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -12513,16 +12484,16 @@
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="20"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="19"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
@@ -12530,16 +12501,16 @@
       <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="19"/>
       <c r="B17" s="27" t="s">
         <v>15</v>
@@ -12547,16 +12518,16 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="20"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="19"/>
       <c r="B18" s="40" t="s">
         <v>16</v>
@@ -12564,16 +12535,16 @@
       <c r="C18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="20"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="19"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
@@ -12581,16 +12552,16 @@
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="20"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -12599,11 +12570,11 @@
       <c r="F20" s="23"/>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="17">
         <v>2</v>
       </c>
@@ -12613,29 +12584,29 @@
       <c r="C21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="18"/>
       <c r="G21" s="15"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="19"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="20"/>
       <c r="G22" s="4"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -12643,55 +12614,55 @@
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
       <c r="F23" s="20"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="19"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="20"/>
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="19"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
       <c r="F25" s="20"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="19"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
       <c r="F26" s="20"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="19"/>
       <c r="B27" s="40" t="s">
         <v>12</v>
@@ -12699,16 +12670,16 @@
       <c r="C27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="19"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -12716,16 +12687,16 @@
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
       <c r="F28" s="20"/>
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="19"/>
       <c r="B29" s="40" t="s">
         <v>14</v>
@@ -12733,16 +12704,16 @@
       <c r="C29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="20"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="19"/>
       <c r="B30" s="27" t="s">
         <v>15</v>
@@ -12750,16 +12721,16 @@
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="20"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="19"/>
       <c r="B31" s="40" t="s">
         <v>16</v>
@@ -12767,16 +12738,16 @@
       <c r="C31" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="20"/>
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="19"/>
       <c r="B32" s="28" t="s">
         <v>17</v>
@@ -12784,16 +12755,16 @@
       <c r="C32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="20"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="22"/>
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
@@ -12802,37 +12773,37 @@
       <c r="F33" s="23"/>
       <c r="G33" s="11"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="65"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="73" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="65" t="s">
+      <c r="G36" s="87"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
     </row>
-    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="72"/>
+    <row r="37" spans="1:11" ht="24">
+      <c r="A37" s="69"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85"/>
       <c r="F37" s="37" t="s">
         <v>6</v>
       </c>
@@ -12842,11 +12813,11 @@
       <c r="H37" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="36">
         <v>3</v>
       </c>
@@ -12861,11 +12832,11 @@
       <c r="F38" s="29"/>
       <c r="G38" s="15"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="64"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="34"/>
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
@@ -12874,11 +12845,11 @@
       <c r="F39" s="33"/>
       <c r="G39" s="4"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="83"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="34"/>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -12891,11 +12862,11 @@
       <c r="F40" s="33"/>
       <c r="G40" s="4"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="83"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="62"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="34"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -12904,11 +12875,11 @@
       <c r="F41" s="33"/>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="83"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="34"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -12917,11 +12888,11 @@
       <c r="F42" s="33"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="83"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="62"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="34"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -12930,11 +12901,11 @@
       <c r="F43" s="33"/>
       <c r="G43" s="4"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="83"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="62"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="34"/>
       <c r="B44" s="40" t="s">
         <v>12</v>
@@ -12947,11 +12918,11 @@
       <c r="F44" s="33"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="83"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="62"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="34"/>
       <c r="B45" s="1" t="s">
         <v>13</v>
@@ -12964,11 +12935,11 @@
       <c r="F45" s="33"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="83"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="62"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="34"/>
       <c r="B46" s="40" t="s">
         <v>14</v>
@@ -12981,11 +12952,11 @@
       <c r="F46" s="33"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="83"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="62"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="34"/>
       <c r="B47" s="27" t="s">
         <v>15</v>
@@ -12998,11 +12969,11 @@
       <c r="F47" s="33"/>
       <c r="G47" s="4"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="83"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="62"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="34"/>
       <c r="B48" s="40" t="s">
         <v>16</v>
@@ -13015,11 +12986,11 @@
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="83"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="62"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="34"/>
       <c r="B49" s="28" t="s">
         <v>17</v>
@@ -13032,11 +13003,11 @@
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="83"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="35"/>
       <c r="B50" s="8"/>
       <c r="C50" s="10"/>
@@ -13045,11 +13016,11 @@
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="86"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="36">
         <v>4</v>
       </c>
@@ -13064,11 +13035,11 @@
       <c r="F51" s="32"/>
       <c r="G51" s="15"/>
       <c r="H51" s="30"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="64"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="59"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="34"/>
       <c r="B52" s="8"/>
       <c r="C52" s="10"/>
@@ -13077,11 +13048,11 @@
       <c r="F52" s="21"/>
       <c r="G52" s="4"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="83"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="62"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="34"/>
       <c r="B53" s="1" t="s">
         <v>11</v>
@@ -13094,11 +13065,11 @@
       <c r="F53" s="21"/>
       <c r="G53" s="4"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="83"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="62"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="34"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -13107,11 +13078,11 @@
       <c r="F54" s="21"/>
       <c r="G54" s="4"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="83"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="62"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="34"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -13120,11 +13091,11 @@
       <c r="F55" s="21"/>
       <c r="G55" s="4"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="83"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="62"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="34"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -13133,11 +13104,11 @@
       <c r="F56" s="21"/>
       <c r="G56" s="4"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="83"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="62"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="34"/>
       <c r="B57" s="40" t="s">
         <v>12</v>
@@ -13150,11 +13121,11 @@
       <c r="F57" s="21"/>
       <c r="G57" s="4"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="83"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="62"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="34"/>
       <c r="B58" s="1" t="s">
         <v>13</v>
@@ -13167,11 +13138,11 @@
       <c r="F58" s="21"/>
       <c r="G58" s="4"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="83"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="62"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="34"/>
       <c r="B59" s="40" t="s">
         <v>14</v>
@@ -13184,11 +13155,11 @@
       <c r="F59" s="21"/>
       <c r="G59" s="4"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="83"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="62"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="34"/>
       <c r="B60" s="27" t="s">
         <v>15</v>
@@ -13201,11 +13172,11 @@
       <c r="F60" s="21"/>
       <c r="G60" s="4"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="83"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="62"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="34"/>
       <c r="B61" s="40" t="s">
         <v>16</v>
@@ -13218,11 +13189,11 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="83"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="62"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="34"/>
       <c r="B62" s="42" t="s">
         <v>17</v>
@@ -13235,11 +13206,11 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="83"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="62"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="35"/>
       <c r="B63" s="8"/>
       <c r="C63" s="10"/>
@@ -13248,37 +13219,37 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="86"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="65"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="73" t="s">
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="74"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="65" t="s">
+      <c r="G70" s="87"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J70" s="76"/>
-      <c r="K70" s="77"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="68"/>
     </row>
-    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="72"/>
+    <row r="71" spans="1:11" ht="24">
+      <c r="A71" s="69"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="85"/>
       <c r="F71" s="37" t="s">
         <v>6</v>
       </c>
@@ -13288,11 +13259,11 @@
       <c r="H71" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="79"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="71"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="17">
         <v>5</v>
       </c>
@@ -13302,29 +13273,29 @@
       <c r="C72" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="90"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
       <c r="F72" s="32"/>
       <c r="G72" s="15"/>
       <c r="H72" s="30"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="64"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="59"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="19"/>
       <c r="B73" s="8"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="92"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="75"/>
       <c r="F73" s="21"/>
       <c r="G73" s="4"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="83"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="62"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="19"/>
       <c r="B74" s="1" t="s">
         <v>11</v>
@@ -13332,55 +13303,55 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="87"/>
-      <c r="E74" s="88"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="77"/>
       <c r="F74" s="21"/>
       <c r="G74" s="4"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="81"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="83"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="62"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="19"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="88"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="77"/>
       <c r="F75" s="21"/>
       <c r="G75" s="4"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="82"/>
-      <c r="K75" s="83"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="62"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="19"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="88"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="77"/>
       <c r="F76" s="21"/>
       <c r="G76" s="4"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="81"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="83"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="62"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="19"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="88"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="77"/>
       <c r="F77" s="21"/>
       <c r="G77" s="4"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="82"/>
-      <c r="K77" s="83"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="62"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="19"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
@@ -13388,16 +13359,16 @@
       <c r="C78" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="59"/>
-      <c r="E78" s="60"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="91"/>
       <c r="F78" s="21"/>
       <c r="G78" s="4"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="81"/>
-      <c r="J78" s="82"/>
-      <c r="K78" s="83"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="62"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="19"/>
       <c r="B79" s="1" t="s">
         <v>13</v>
@@ -13405,16 +13376,16 @@
       <c r="C79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="59"/>
-      <c r="E79" s="60"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="91"/>
       <c r="F79" s="21"/>
       <c r="G79" s="4"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="81"/>
-      <c r="J79" s="82"/>
-      <c r="K79" s="83"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="62"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="19"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
@@ -13422,16 +13393,16 @@
       <c r="C80" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="58"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="93"/>
       <c r="F80" s="21"/>
       <c r="G80" s="4"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="81"/>
-      <c r="J80" s="82"/>
-      <c r="K80" s="83"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="62"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="19"/>
       <c r="B81" s="27" t="s">
         <v>15</v>
@@ -13439,16 +13410,16 @@
       <c r="C81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="59"/>
-      <c r="E81" s="60"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="91"/>
       <c r="F81" s="21"/>
       <c r="G81" s="4"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="81"/>
-      <c r="J81" s="82"/>
-      <c r="K81" s="83"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="62"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="19"/>
       <c r="B82" s="40" t="s">
         <v>16</v>
@@ -13456,16 +13427,16 @@
       <c r="C82" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="95"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="81"/>
-      <c r="J82" s="82"/>
-      <c r="K82" s="83"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="62"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="19"/>
       <c r="B83" s="42" t="s">
         <v>17</v>
@@ -13473,16 +13444,16 @@
       <c r="C83" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="59"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="81"/>
-      <c r="J83" s="82"/>
-      <c r="K83" s="83"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="62"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="22"/>
       <c r="B84" s="8"/>
       <c r="C84" s="10"/>
@@ -13491,11 +13462,11 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="86"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="17">
         <v>6</v>
       </c>
@@ -13505,29 +13476,29 @@
       <c r="C85" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="89"/>
-      <c r="E85" s="90"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="73"/>
       <c r="F85" s="32"/>
       <c r="G85" s="15"/>
       <c r="H85" s="30"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="64"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="59"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="19"/>
       <c r="B86" s="8"/>
       <c r="C86" s="10"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="92"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="75"/>
       <c r="F86" s="21"/>
       <c r="G86" s="4"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="82"/>
-      <c r="K86" s="83"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="62"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="19"/>
       <c r="B87" s="1" t="s">
         <v>11</v>
@@ -13535,55 +13506,55 @@
       <c r="C87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="87"/>
-      <c r="E87" s="88"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="77"/>
       <c r="F87" s="21"/>
       <c r="G87" s="4"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="81"/>
-      <c r="J87" s="82"/>
-      <c r="K87" s="83"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="62"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="19"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="88"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="77"/>
       <c r="F88" s="21"/>
       <c r="G88" s="4"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="82"/>
-      <c r="K88" s="83"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="62"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="19"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="88"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="77"/>
       <c r="F89" s="21"/>
       <c r="G89" s="4"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="81"/>
-      <c r="J89" s="82"/>
-      <c r="K89" s="83"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="62"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="19"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="88"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="77"/>
       <c r="F90" s="21"/>
       <c r="G90" s="4"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="82"/>
-      <c r="K90" s="83"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="62"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="19"/>
       <c r="B91" s="40" t="s">
         <v>12</v>
@@ -13591,16 +13562,16 @@
       <c r="C91" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="59"/>
-      <c r="E91" s="60"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="91"/>
       <c r="F91" s="21"/>
       <c r="G91" s="4"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="81"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="83"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="62"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="19"/>
       <c r="B92" s="1" t="s">
         <v>13</v>
@@ -13608,16 +13579,16 @@
       <c r="C92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="59"/>
-      <c r="E92" s="60"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="91"/>
       <c r="F92" s="21"/>
       <c r="G92" s="4"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="81"/>
-      <c r="J92" s="82"/>
-      <c r="K92" s="83"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="62"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="19"/>
       <c r="B93" s="40" t="s">
         <v>14</v>
@@ -13625,16 +13596,16 @@
       <c r="C93" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="58"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="93"/>
       <c r="F93" s="21"/>
       <c r="G93" s="4"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="81"/>
-      <c r="J93" s="82"/>
-      <c r="K93" s="83"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="62"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="19"/>
       <c r="B94" s="27" t="s">
         <v>15</v>
@@ -13642,16 +13613,16 @@
       <c r="C94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="59"/>
-      <c r="E94" s="60"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="91"/>
       <c r="F94" s="21"/>
       <c r="G94" s="4"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="81"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="83"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="61"/>
+      <c r="K94" s="62"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="19"/>
       <c r="B95" s="40" t="s">
         <v>16</v>
@@ -13659,16 +13630,16 @@
       <c r="C95" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="62"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="95"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="81"/>
-      <c r="J95" s="82"/>
-      <c r="K95" s="83"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="62"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="19"/>
       <c r="B96" s="42" t="s">
         <v>17</v>
@@ -13676,16 +13647,16 @@
       <c r="C96" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="63"/>
-      <c r="E96" s="64"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="59"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="82"/>
-      <c r="K96" s="83"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="62"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="22"/>
       <c r="B97" s="8"/>
       <c r="C97" s="10"/>
@@ -13694,37 +13665,37 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="85"/>
-      <c r="K97" s="86"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="65"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="65" t="s">
+    <row r="104" spans="1:11">
+      <c r="A104" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="67" t="s">
+      <c r="B104" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="73" t="s">
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="74"/>
-      <c r="H104" s="75"/>
-      <c r="I104" s="65" t="s">
+      <c r="G104" s="87"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J104" s="76"/>
-      <c r="K104" s="77"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="68"/>
     </row>
-    <row r="105" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="71"/>
-      <c r="E105" s="72"/>
+    <row r="105" spans="1:11" ht="24">
+      <c r="A105" s="69"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="37" t="s">
         <v>6</v>
       </c>
@@ -13734,11 +13705,11 @@
       <c r="H105" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="66"/>
-      <c r="J105" s="78"/>
-      <c r="K105" s="79"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="71"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="17">
         <v>7</v>
       </c>
@@ -13748,29 +13719,29 @@
       <c r="C106" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="89"/>
-      <c r="E106" s="90"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="73"/>
       <c r="F106" s="32"/>
       <c r="G106" s="15"/>
       <c r="H106" s="30"/>
-      <c r="I106" s="80"/>
-      <c r="J106" s="63"/>
-      <c r="K106" s="64"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="59"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="19"/>
       <c r="B107" s="8"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="91"/>
-      <c r="E107" s="92"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="75"/>
       <c r="F107" s="21"/>
       <c r="G107" s="4"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="81"/>
-      <c r="J107" s="82"/>
-      <c r="K107" s="83"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="61"/>
+      <c r="K107" s="62"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="19"/>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -13778,55 +13749,55 @@
       <c r="C108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="87"/>
-      <c r="E108" s="88"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="77"/>
       <c r="F108" s="21"/>
       <c r="G108" s="4"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="82"/>
-      <c r="K108" s="83"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="62"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="19"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="88"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="77"/>
       <c r="F109" s="21"/>
       <c r="G109" s="4"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="82"/>
-      <c r="K109" s="83"/>
+      <c r="I109" s="60"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="62"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="19"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="88"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="77"/>
       <c r="F110" s="21"/>
       <c r="G110" s="4"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="81"/>
-      <c r="J110" s="82"/>
-      <c r="K110" s="83"/>
+      <c r="I110" s="60"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="62"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="19"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="88"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="77"/>
       <c r="F111" s="21"/>
       <c r="G111" s="4"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="81"/>
-      <c r="J111" s="82"/>
-      <c r="K111" s="83"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="62"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="19"/>
       <c r="B112" s="40" t="s">
         <v>12</v>
@@ -13834,16 +13805,16 @@
       <c r="C112" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="59"/>
-      <c r="E112" s="60"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="91"/>
       <c r="F112" s="21"/>
       <c r="G112" s="4"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="81"/>
-      <c r="J112" s="82"/>
-      <c r="K112" s="83"/>
+      <c r="I112" s="60"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="62"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="19"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
@@ -13851,16 +13822,16 @@
       <c r="C113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="59"/>
-      <c r="E113" s="60"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="91"/>
       <c r="F113" s="21"/>
       <c r="G113" s="4"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="81"/>
-      <c r="J113" s="82"/>
-      <c r="K113" s="83"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="62"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="19"/>
       <c r="B114" s="40" t="s">
         <v>14</v>
@@ -13868,16 +13839,16 @@
       <c r="C114" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="57"/>
-      <c r="E114" s="58"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="93"/>
       <c r="F114" s="21"/>
       <c r="G114" s="4"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="81"/>
-      <c r="J114" s="82"/>
-      <c r="K114" s="83"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="61"/>
+      <c r="K114" s="62"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="19"/>
       <c r="B115" s="27" t="s">
         <v>15</v>
@@ -13885,16 +13856,16 @@
       <c r="C115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="59"/>
-      <c r="E115" s="60"/>
+      <c r="D115" s="90"/>
+      <c r="E115" s="91"/>
       <c r="F115" s="21"/>
       <c r="G115" s="4"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="81"/>
-      <c r="J115" s="82"/>
-      <c r="K115" s="83"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="62"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="19"/>
       <c r="B116" s="40" t="s">
         <v>16</v>
@@ -13902,16 +13873,16 @@
       <c r="C116" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="61"/>
-      <c r="E116" s="62"/>
+      <c r="D116" s="94"/>
+      <c r="E116" s="95"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="81"/>
-      <c r="J116" s="82"/>
-      <c r="K116" s="83"/>
+      <c r="I116" s="60"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="62"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="19"/>
       <c r="B117" s="42" t="s">
         <v>17</v>
@@ -13919,16 +13890,16 @@
       <c r="C117" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="63"/>
-      <c r="E117" s="64"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="59"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="81"/>
-      <c r="J117" s="82"/>
-      <c r="K117" s="83"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="62"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="22"/>
       <c r="B118" s="8"/>
       <c r="C118" s="10"/>
@@ -13937,11 +13908,11 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="86"/>
+      <c r="I118" s="63"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="65"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="17">
         <v>8</v>
       </c>
@@ -13951,29 +13922,29 @@
       <c r="C119" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="89"/>
-      <c r="E119" s="90"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="73"/>
       <c r="F119" s="32"/>
       <c r="G119" s="15"/>
       <c r="H119" s="30"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="63"/>
-      <c r="K119" s="64"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="58"/>
+      <c r="K119" s="59"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="19"/>
       <c r="B120" s="8"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="91"/>
-      <c r="E120" s="92"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="75"/>
       <c r="F120" s="21"/>
       <c r="G120" s="4"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="81"/>
-      <c r="J120" s="82"/>
-      <c r="K120" s="83"/>
+      <c r="I120" s="60"/>
+      <c r="J120" s="61"/>
+      <c r="K120" s="62"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="19"/>
       <c r="B121" s="1" t="s">
         <v>11</v>
@@ -13981,55 +13952,55 @@
       <c r="C121" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="87"/>
-      <c r="E121" s="88"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="77"/>
       <c r="F121" s="21"/>
       <c r="G121" s="4"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="81"/>
-      <c r="J121" s="82"/>
-      <c r="K121" s="83"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="62"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="19"/>
       <c r="B122" s="1"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="87"/>
-      <c r="E122" s="88"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="77"/>
       <c r="F122" s="21"/>
       <c r="G122" s="4"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="81"/>
-      <c r="J122" s="82"/>
-      <c r="K122" s="83"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="61"/>
+      <c r="K122" s="62"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="19"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="87"/>
-      <c r="E123" s="88"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="77"/>
       <c r="F123" s="21"/>
       <c r="G123" s="4"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="81"/>
-      <c r="J123" s="82"/>
-      <c r="K123" s="83"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="61"/>
+      <c r="K123" s="62"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="19"/>
       <c r="B124" s="1"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="87"/>
-      <c r="E124" s="88"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="77"/>
       <c r="F124" s="21"/>
       <c r="G124" s="4"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="81"/>
-      <c r="J124" s="82"/>
-      <c r="K124" s="83"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="62"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="19"/>
       <c r="B125" s="40" t="s">
         <v>12</v>
@@ -14037,16 +14008,16 @@
       <c r="C125" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="59"/>
-      <c r="E125" s="60"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="91"/>
       <c r="F125" s="21"/>
       <c r="G125" s="4"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="81"/>
-      <c r="J125" s="82"/>
-      <c r="K125" s="83"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="62"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="19"/>
       <c r="B126" s="1" t="s">
         <v>13</v>
@@ -14054,16 +14025,16 @@
       <c r="C126" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="59"/>
-      <c r="E126" s="60"/>
+      <c r="D126" s="90"/>
+      <c r="E126" s="91"/>
       <c r="F126" s="21"/>
       <c r="G126" s="4"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="81"/>
-      <c r="J126" s="82"/>
-      <c r="K126" s="83"/>
+      <c r="I126" s="60"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="62"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="19"/>
       <c r="B127" s="40" t="s">
         <v>14</v>
@@ -14071,16 +14042,16 @@
       <c r="C127" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="57"/>
-      <c r="E127" s="58"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="93"/>
       <c r="F127" s="21"/>
       <c r="G127" s="4"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="81"/>
-      <c r="J127" s="82"/>
-      <c r="K127" s="83"/>
+      <c r="I127" s="60"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="62"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="19"/>
       <c r="B128" s="27" t="s">
         <v>15</v>
@@ -14088,16 +14059,16 @@
       <c r="C128" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="59"/>
-      <c r="E128" s="60"/>
+      <c r="D128" s="90"/>
+      <c r="E128" s="91"/>
       <c r="F128" s="21"/>
       <c r="G128" s="4"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="81"/>
-      <c r="J128" s="82"/>
-      <c r="K128" s="83"/>
+      <c r="I128" s="60"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="62"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="19"/>
       <c r="B129" s="40" t="s">
         <v>16</v>
@@ -14105,16 +14076,16 @@
       <c r="C129" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="61"/>
-      <c r="E129" s="62"/>
+      <c r="D129" s="94"/>
+      <c r="E129" s="95"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="81"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="83"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="61"/>
+      <c r="K129" s="62"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="19"/>
       <c r="B130" s="42" t="s">
         <v>17</v>
@@ -14122,16 +14093,16 @@
       <c r="C130" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="63"/>
-      <c r="E130" s="64"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="59"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="81"/>
-      <c r="J130" s="82"/>
-      <c r="K130" s="83"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="61"/>
+      <c r="K130" s="62"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="22"/>
       <c r="B131" s="8"/>
       <c r="C131" s="10"/>
@@ -14140,37 +14111,37 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="84"/>
-      <c r="J131" s="85"/>
-      <c r="K131" s="86"/>
+      <c r="I131" s="63"/>
+      <c r="J131" s="64"/>
+      <c r="K131" s="65"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="65" t="s">
+    <row r="138" spans="1:11">
+      <c r="A138" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="67" t="s">
+      <c r="B138" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="68"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="73" t="s">
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="82"/>
+      <c r="F138" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="74"/>
-      <c r="H138" s="75"/>
-      <c r="I138" s="65" t="s">
+      <c r="G138" s="87"/>
+      <c r="H138" s="88"/>
+      <c r="I138" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="J138" s="76"/>
-      <c r="K138" s="77"/>
+      <c r="J138" s="67"/>
+      <c r="K138" s="68"/>
     </row>
-    <row r="139" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A139" s="66"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
-      <c r="E139" s="72"/>
+    <row r="139" spans="1:11" ht="24">
+      <c r="A139" s="69"/>
+      <c r="B139" s="83"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="85"/>
       <c r="F139" s="37" t="s">
         <v>6</v>
       </c>
@@ -14180,11 +14151,11 @@
       <c r="H139" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I139" s="66"/>
-      <c r="J139" s="78"/>
-      <c r="K139" s="79"/>
+      <c r="I139" s="69"/>
+      <c r="J139" s="70"/>
+      <c r="K139" s="71"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="17">
         <v>9</v>
       </c>
@@ -14194,29 +14165,29 @@
       <c r="C140" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="89"/>
-      <c r="E140" s="90"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="73"/>
       <c r="F140" s="32"/>
       <c r="G140" s="15"/>
       <c r="H140" s="30"/>
-      <c r="I140" s="80"/>
-      <c r="J140" s="63"/>
-      <c r="K140" s="64"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="58"/>
+      <c r="K140" s="59"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="19"/>
       <c r="B141" s="8"/>
       <c r="C141" s="10"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="92"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="75"/>
       <c r="F141" s="21"/>
       <c r="G141" s="4"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="81"/>
-      <c r="J141" s="82"/>
-      <c r="K141" s="83"/>
+      <c r="I141" s="60"/>
+      <c r="J141" s="61"/>
+      <c r="K141" s="62"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="19"/>
       <c r="B142" s="1" t="s">
         <v>11</v>
@@ -14224,55 +14195,55 @@
       <c r="C142" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="87"/>
-      <c r="E142" s="88"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="77"/>
       <c r="F142" s="21"/>
       <c r="G142" s="4"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="81"/>
-      <c r="J142" s="82"/>
-      <c r="K142" s="83"/>
+      <c r="I142" s="60"/>
+      <c r="J142" s="61"/>
+      <c r="K142" s="62"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="19"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="87"/>
-      <c r="E143" s="88"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="77"/>
       <c r="F143" s="21"/>
       <c r="G143" s="4"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="81"/>
-      <c r="J143" s="82"/>
-      <c r="K143" s="83"/>
+      <c r="I143" s="60"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="62"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="19"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="87"/>
-      <c r="E144" s="88"/>
+      <c r="D144" s="76"/>
+      <c r="E144" s="77"/>
       <c r="F144" s="21"/>
       <c r="G144" s="4"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="81"/>
-      <c r="J144" s="82"/>
-      <c r="K144" s="83"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="61"/>
+      <c r="K144" s="62"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="19"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="87"/>
-      <c r="E145" s="88"/>
+      <c r="D145" s="76"/>
+      <c r="E145" s="77"/>
       <c r="F145" s="21"/>
       <c r="G145" s="4"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="81"/>
-      <c r="J145" s="82"/>
-      <c r="K145" s="83"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="61"/>
+      <c r="K145" s="62"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="19"/>
       <c r="B146" s="40" t="s">
         <v>12</v>
@@ -14280,16 +14251,16 @@
       <c r="C146" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="59"/>
-      <c r="E146" s="60"/>
+      <c r="D146" s="90"/>
+      <c r="E146" s="91"/>
       <c r="F146" s="21"/>
       <c r="G146" s="4"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="81"/>
-      <c r="J146" s="82"/>
-      <c r="K146" s="83"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="61"/>
+      <c r="K146" s="62"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="19"/>
       <c r="B147" s="1" t="s">
         <v>13</v>
@@ -14297,16 +14268,16 @@
       <c r="C147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="59"/>
-      <c r="E147" s="60"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="91"/>
       <c r="F147" s="21"/>
       <c r="G147" s="4"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="81"/>
-      <c r="J147" s="82"/>
-      <c r="K147" s="83"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="62"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="19"/>
       <c r="B148" s="40" t="s">
         <v>14</v>
@@ -14314,16 +14285,16 @@
       <c r="C148" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="57"/>
-      <c r="E148" s="58"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="93"/>
       <c r="F148" s="21"/>
       <c r="G148" s="4"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="81"/>
-      <c r="J148" s="82"/>
-      <c r="K148" s="83"/>
+      <c r="I148" s="60"/>
+      <c r="J148" s="61"/>
+      <c r="K148" s="62"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="19"/>
       <c r="B149" s="27" t="s">
         <v>15</v>
@@ -14331,16 +14302,16 @@
       <c r="C149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D149" s="59"/>
-      <c r="E149" s="60"/>
+      <c r="D149" s="90"/>
+      <c r="E149" s="91"/>
       <c r="F149" s="21"/>
       <c r="G149" s="4"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="81"/>
-      <c r="J149" s="82"/>
-      <c r="K149" s="83"/>
+      <c r="I149" s="60"/>
+      <c r="J149" s="61"/>
+      <c r="K149" s="62"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="19"/>
       <c r="B150" s="40" t="s">
         <v>16</v>
@@ -14348,16 +14319,16 @@
       <c r="C150" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D150" s="61"/>
-      <c r="E150" s="62"/>
+      <c r="D150" s="94"/>
+      <c r="E150" s="95"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="2"/>
-      <c r="I150" s="81"/>
-      <c r="J150" s="82"/>
-      <c r="K150" s="83"/>
+      <c r="I150" s="60"/>
+      <c r="J150" s="61"/>
+      <c r="K150" s="62"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="19"/>
       <c r="B151" s="42" t="s">
         <v>17</v>
@@ -14365,16 +14336,16 @@
       <c r="C151" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="63"/>
-      <c r="E151" s="64"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="59"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="81"/>
-      <c r="J151" s="82"/>
-      <c r="K151" s="83"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="61"/>
+      <c r="K151" s="62"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="22"/>
       <c r="B152" s="8"/>
       <c r="C152" s="10"/>
@@ -14383,11 +14354,11 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="84"/>
-      <c r="J152" s="85"/>
-      <c r="K152" s="86"/>
+      <c r="I152" s="63"/>
+      <c r="J152" s="64"/>
+      <c r="K152" s="65"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="17">
         <v>10</v>
       </c>
@@ -14397,29 +14368,29 @@
       <c r="C153" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D153" s="89"/>
-      <c r="E153" s="90"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="73"/>
       <c r="F153" s="32"/>
       <c r="G153" s="15"/>
       <c r="H153" s="30"/>
-      <c r="I153" s="80"/>
-      <c r="J153" s="63"/>
-      <c r="K153" s="64"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="58"/>
+      <c r="K153" s="59"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="19"/>
       <c r="B154" s="8"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="92"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="75"/>
       <c r="F154" s="21"/>
       <c r="G154" s="4"/>
       <c r="H154" s="12"/>
-      <c r="I154" s="81"/>
-      <c r="J154" s="82"/>
-      <c r="K154" s="83"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="61"/>
+      <c r="K154" s="62"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="19"/>
       <c r="B155" s="1" t="s">
         <v>11</v>
@@ -14427,55 +14398,55 @@
       <c r="C155" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="87"/>
-      <c r="E155" s="88"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="77"/>
       <c r="F155" s="21"/>
       <c r="G155" s="4"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="81"/>
-      <c r="J155" s="82"/>
-      <c r="K155" s="83"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="61"/>
+      <c r="K155" s="62"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="19"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="87"/>
-      <c r="E156" s="88"/>
+      <c r="D156" s="76"/>
+      <c r="E156" s="77"/>
       <c r="F156" s="21"/>
       <c r="G156" s="4"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="81"/>
-      <c r="J156" s="82"/>
-      <c r="K156" s="83"/>
+      <c r="I156" s="60"/>
+      <c r="J156" s="61"/>
+      <c r="K156" s="62"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="19"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="87"/>
-      <c r="E157" s="88"/>
+      <c r="D157" s="76"/>
+      <c r="E157" s="77"/>
       <c r="F157" s="21"/>
       <c r="G157" s="4"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="81"/>
-      <c r="J157" s="82"/>
-      <c r="K157" s="83"/>
+      <c r="I157" s="60"/>
+      <c r="J157" s="61"/>
+      <c r="K157" s="62"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="19"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="88"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="77"/>
       <c r="F158" s="21"/>
       <c r="G158" s="4"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="81"/>
-      <c r="J158" s="82"/>
-      <c r="K158" s="83"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="61"/>
+      <c r="K158" s="62"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="19"/>
       <c r="B159" s="40" t="s">
         <v>12</v>
@@ -14483,16 +14454,16 @@
       <c r="C159" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D159" s="59"/>
-      <c r="E159" s="60"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="91"/>
       <c r="F159" s="21"/>
       <c r="G159" s="4"/>
       <c r="H159" s="2"/>
-      <c r="I159" s="81"/>
-      <c r="J159" s="82"/>
-      <c r="K159" s="83"/>
+      <c r="I159" s="60"/>
+      <c r="J159" s="61"/>
+      <c r="K159" s="62"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="19"/>
       <c r="B160" s="1" t="s">
         <v>13</v>
@@ -14500,16 +14471,16 @@
       <c r="C160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="59"/>
-      <c r="E160" s="60"/>
+      <c r="D160" s="90"/>
+      <c r="E160" s="91"/>
       <c r="F160" s="21"/>
       <c r="G160" s="4"/>
       <c r="H160" s="2"/>
-      <c r="I160" s="81"/>
-      <c r="J160" s="82"/>
-      <c r="K160" s="83"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="61"/>
+      <c r="K160" s="62"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="19"/>
       <c r="B161" s="40" t="s">
         <v>14</v>
@@ -14517,16 +14488,16 @@
       <c r="C161" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="57"/>
-      <c r="E161" s="58"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="93"/>
       <c r="F161" s="21"/>
       <c r="G161" s="4"/>
       <c r="H161" s="2"/>
-      <c r="I161" s="81"/>
-      <c r="J161" s="82"/>
-      <c r="K161" s="83"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="61"/>
+      <c r="K161" s="62"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="19"/>
       <c r="B162" s="27" t="s">
         <v>15</v>
@@ -14534,16 +14505,16 @@
       <c r="C162" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="59"/>
-      <c r="E162" s="60"/>
+      <c r="D162" s="90"/>
+      <c r="E162" s="91"/>
       <c r="F162" s="21"/>
       <c r="G162" s="4"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="81"/>
-      <c r="J162" s="82"/>
-      <c r="K162" s="83"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="61"/>
+      <c r="K162" s="62"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="19"/>
       <c r="B163" s="40" t="s">
         <v>16</v>
@@ -14551,16 +14522,16 @@
       <c r="C163" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="61"/>
-      <c r="E163" s="62"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="95"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="2"/>
-      <c r="I163" s="81"/>
-      <c r="J163" s="82"/>
-      <c r="K163" s="83"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="61"/>
+      <c r="K163" s="62"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="19"/>
       <c r="B164" s="42" t="s">
         <v>17</v>
@@ -14568,16 +14539,16 @@
       <c r="C164" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D164" s="63"/>
-      <c r="E164" s="64"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="59"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="2"/>
-      <c r="I164" s="81"/>
-      <c r="J164" s="82"/>
-      <c r="K164" s="83"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="61"/>
+      <c r="K164" s="62"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="22"/>
       <c r="B165" s="8"/>
       <c r="C165" s="10"/>
@@ -14586,29 +14557,76 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="9"/>
-      <c r="I165" s="84"/>
-      <c r="J165" s="85"/>
-      <c r="K165" s="86"/>
+      <c r="I165" s="63"/>
+      <c r="J165" s="64"/>
+      <c r="K165" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="I38:K50"/>
-    <mergeCell ref="I51:K63"/>
-    <mergeCell ref="I36:K37"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E26"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:E139"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="I138:K139"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:E71"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K71"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:E105"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="I104:K105"/>
+    <mergeCell ref="I85:K97"/>
+    <mergeCell ref="D87:E90"/>
+    <mergeCell ref="D106:E107"/>
+    <mergeCell ref="I106:K118"/>
+    <mergeCell ref="D119:E120"/>
+    <mergeCell ref="I119:K131"/>
+    <mergeCell ref="D121:E124"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D140:E141"/>
+    <mergeCell ref="D142:E145"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D153:E154"/>
+    <mergeCell ref="I153:K165"/>
+    <mergeCell ref="D155:E158"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="I140:K152"/>
+    <mergeCell ref="D85:E86"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="I72:K84"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D108:E111"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:E77"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D17:E17"/>
@@ -14625,70 +14643,23 @@
     <mergeCell ref="D10:E13"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D85:E86"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="I72:K84"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D108:E111"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:E77"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D153:E154"/>
-    <mergeCell ref="I153:K165"/>
-    <mergeCell ref="D155:E158"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D140:E141"/>
-    <mergeCell ref="D142:E145"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D119:E120"/>
-    <mergeCell ref="I119:K131"/>
-    <mergeCell ref="D121:E124"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="I140:K152"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:E139"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="I138:K139"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:E71"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K71"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:E105"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="I104:K105"/>
-    <mergeCell ref="I85:K97"/>
-    <mergeCell ref="D87:E90"/>
-    <mergeCell ref="D106:E107"/>
-    <mergeCell ref="I106:K118"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="I38:K50"/>
+    <mergeCell ref="I51:K63"/>
+    <mergeCell ref="I36:K37"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/templates/BA Penerimaan Prakualifikasi.xlsx
+++ b/templates/BA Penerimaan Prakualifikasi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
@@ -112,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,7 +469,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,65 +493,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,26 +526,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12049,6 +12049,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -12083,6 +12084,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12258,14 +12260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D30" sqref="D30:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -12275,35 +12277,35 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
     </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -12316,48 +12318,48 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="79" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="86" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
-    <row r="7" spans="1:11" ht="24">
-      <c r="A7" s="69"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
+    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="37" t="s">
         <v>6</v>
       </c>
@@ -12367,11 +12369,11 @@
       <c r="H7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -12381,29 +12383,29 @@
       <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="20"/>
       <c r="G8" s="5"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="20"/>
       <c r="G9" s="4"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -12411,55 +12413,55 @@
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="20"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="20"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="20"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="20"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="40" t="s">
         <v>12</v>
@@ -12467,16 +12469,16 @@
       <c r="C14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="20"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -12484,16 +12486,16 @@
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="20"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="40" t="s">
         <v>14</v>
@@ -12501,16 +12503,16 @@
       <c r="C16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="27" t="s">
         <v>15</v>
@@ -12518,16 +12520,16 @@
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="20"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="40" t="s">
         <v>16</v>
@@ -12535,16 +12537,16 @@
       <c r="C18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="20"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="28" t="s">
         <v>17</v>
@@ -12552,16 +12554,16 @@
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="20"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -12570,11 +12572,11 @@
       <c r="F20" s="23"/>
       <c r="G20" s="11"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>2</v>
       </c>
@@ -12584,29 +12586,29 @@
       <c r="C21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="18"/>
       <c r="G21" s="15"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="20"/>
       <c r="G22" s="4"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -12614,55 +12616,55 @@
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="20"/>
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="20"/>
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="20"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="20"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="40" t="s">
         <v>12</v>
@@ -12670,16 +12672,16 @@
       <c r="C27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -12687,16 +12689,16 @@
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="20"/>
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="83"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="40" t="s">
         <v>14</v>
@@ -12704,16 +12706,16 @@
       <c r="C29" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="20"/>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="27" t="s">
         <v>15</v>
@@ -12721,16 +12723,16 @@
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="20"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="40" t="s">
         <v>16</v>
@@ -12738,16 +12740,16 @@
       <c r="C31" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="20"/>
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="83"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="28" t="s">
         <v>17</v>
@@ -12755,16 +12757,16 @@
       <c r="C32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="20"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
@@ -12773,37 +12775,37 @@
       <c r="F33" s="23"/>
       <c r="G33" s="11"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="65"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="66" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="86" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="66" t="s">
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="67"/>
-      <c r="K36" s="68"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77"/>
     </row>
-    <row r="37" spans="1:11" ht="24">
-      <c r="A37" s="69"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="85"/>
+    <row r="37" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="37" t="s">
         <v>6</v>
       </c>
@@ -12813,11 +12815,11 @@
       <c r="H37" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="71"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>3</v>
       </c>
@@ -12832,11 +12834,11 @@
       <c r="F38" s="29"/>
       <c r="G38" s="15"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
@@ -12845,11 +12847,11 @@
       <c r="F39" s="33"/>
       <c r="G39" s="4"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="83"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -12862,11 +12864,11 @@
       <c r="F40" s="33"/>
       <c r="G40" s="4"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -12875,11 +12877,11 @@
       <c r="F41" s="33"/>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="83"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -12888,11 +12890,11 @@
       <c r="F42" s="33"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="83"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -12901,11 +12903,11 @@
       <c r="F43" s="33"/>
       <c r="G43" s="4"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="62"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="83"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
       <c r="B44" s="40" t="s">
         <v>12</v>
@@ -12918,11 +12920,11 @@
       <c r="F44" s="33"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
       <c r="B45" s="1" t="s">
         <v>13</v>
@@ -12935,11 +12937,11 @@
       <c r="F45" s="33"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="62"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="83"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
       <c r="B46" s="40" t="s">
         <v>14</v>
@@ -12952,11 +12954,11 @@
       <c r="F46" s="33"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="62"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="83"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
       <c r="B47" s="27" t="s">
         <v>15</v>
@@ -12969,11 +12971,11 @@
       <c r="F47" s="33"/>
       <c r="G47" s="4"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="62"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="83"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
       <c r="B48" s="40" t="s">
         <v>16</v>
@@ -12986,11 +12988,11 @@
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="83"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
       <c r="B49" s="28" t="s">
         <v>17</v>
@@ -13003,11 +13005,11 @@
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="83"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="8"/>
       <c r="C50" s="10"/>
@@ -13016,11 +13018,11 @@
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="65"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="86"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <v>4</v>
       </c>
@@ -13035,11 +13037,11 @@
       <c r="F51" s="32"/>
       <c r="G51" s="15"/>
       <c r="H51" s="30"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="59"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
       <c r="B52" s="8"/>
       <c r="C52" s="10"/>
@@ -13048,11 +13050,11 @@
       <c r="F52" s="21"/>
       <c r="G52" s="4"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="62"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="83"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
       <c r="B53" s="1" t="s">
         <v>11</v>
@@ -13065,11 +13067,11 @@
       <c r="F53" s="21"/>
       <c r="G53" s="4"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="62"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="83"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
@@ -13078,11 +13080,11 @@
       <c r="F54" s="21"/>
       <c r="G54" s="4"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="62"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="83"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -13091,11 +13093,11 @@
       <c r="F55" s="21"/>
       <c r="G55" s="4"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="62"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="83"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -13104,11 +13106,11 @@
       <c r="F56" s="21"/>
       <c r="G56" s="4"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="62"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="83"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
       <c r="B57" s="40" t="s">
         <v>12</v>
@@ -13121,11 +13123,11 @@
       <c r="F57" s="21"/>
       <c r="G57" s="4"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="62"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="83"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
       <c r="B58" s="1" t="s">
         <v>13</v>
@@ -13138,11 +13140,11 @@
       <c r="F58" s="21"/>
       <c r="G58" s="4"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="83"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
       <c r="B59" s="40" t="s">
         <v>14</v>
@@ -13155,11 +13157,11 @@
       <c r="F59" s="21"/>
       <c r="G59" s="4"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="62"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="82"/>
+      <c r="K59" s="83"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
       <c r="B60" s="27" t="s">
         <v>15</v>
@@ -13172,11 +13174,11 @@
       <c r="F60" s="21"/>
       <c r="G60" s="4"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="62"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="83"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
       <c r="B61" s="40" t="s">
         <v>16</v>
@@ -13189,11 +13191,11 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="62"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="83"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
       <c r="B62" s="42" t="s">
         <v>17</v>
@@ -13206,11 +13208,11 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="62"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="83"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="8"/>
       <c r="C63" s="10"/>
@@ -13219,37 +13221,37 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="65"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="86"/>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="66" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="86" t="s">
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="87"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="66" t="s">
+      <c r="G70" s="74"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J70" s="67"/>
-      <c r="K70" s="68"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="77"/>
     </row>
-    <row r="71" spans="1:11" ht="24">
-      <c r="A71" s="69"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="85"/>
+    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="37" t="s">
         <v>6</v>
       </c>
@@ -13259,11 +13261,11 @@
       <c r="H71" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I71" s="69"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="71"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="79"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>5</v>
       </c>
@@ -13273,29 +13275,29 @@
       <c r="C72" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="73"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90"/>
       <c r="F72" s="32"/>
       <c r="G72" s="15"/>
       <c r="H72" s="30"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="59"/>
+      <c r="I72" s="80"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="64"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="8"/>
       <c r="C73" s="10"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="75"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="92"/>
       <c r="F73" s="21"/>
       <c r="G73" s="4"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="62"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="82"/>
+      <c r="K73" s="83"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="1" t="s">
         <v>11</v>
@@ -13303,55 +13305,55 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="76"/>
-      <c r="E74" s="77"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="88"/>
       <c r="F74" s="21"/>
       <c r="G74" s="4"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="62"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="82"/>
+      <c r="K74" s="83"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="77"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="88"/>
       <c r="F75" s="21"/>
       <c r="G75" s="4"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="62"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="83"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="77"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="88"/>
       <c r="F76" s="21"/>
       <c r="G76" s="4"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="62"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="83"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="77"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="88"/>
       <c r="F77" s="21"/>
       <c r="G77" s="4"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="83"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="40" t="s">
         <v>12</v>
@@ -13359,16 +13361,16 @@
       <c r="C78" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="90"/>
-      <c r="E78" s="91"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="21"/>
       <c r="G78" s="4"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="62"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="83"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="1" t="s">
         <v>13</v>
@@ -13376,16 +13378,16 @@
       <c r="C79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="90"/>
-      <c r="E79" s="91"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="21"/>
       <c r="G79" s="4"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="62"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="83"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="40" t="s">
         <v>14</v>
@@ -13393,16 +13395,16 @@
       <c r="C80" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="92"/>
-      <c r="E80" s="93"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="21"/>
       <c r="G80" s="4"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="62"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="82"/>
+      <c r="K80" s="83"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="27" t="s">
         <v>15</v>
@@ -13410,16 +13412,16 @@
       <c r="C81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="90"/>
-      <c r="E81" s="91"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="21"/>
       <c r="G81" s="4"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="62"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="82"/>
+      <c r="K81" s="83"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="40" t="s">
         <v>16</v>
@@ -13427,16 +13429,16 @@
       <c r="C82" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="94"/>
-      <c r="E82" s="95"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="62"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="82"/>
+      <c r="K82" s="83"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="42" t="s">
         <v>17</v>
@@ -13444,16 +13446,16 @@
       <c r="C83" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="59"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="62"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="82"/>
+      <c r="K83" s="83"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="8"/>
       <c r="C84" s="10"/>
@@ -13462,11 +13464,11 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="65"/>
+      <c r="I84" s="84"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="86"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>6</v>
       </c>
@@ -13476,29 +13478,29 @@
       <c r="C85" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="72"/>
-      <c r="E85" s="73"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="90"/>
       <c r="F85" s="32"/>
       <c r="G85" s="15"/>
       <c r="H85" s="30"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="59"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="64"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="8"/>
       <c r="C86" s="10"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="75"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="21"/>
       <c r="G86" s="4"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="62"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="82"/>
+      <c r="K86" s="83"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="1" t="s">
         <v>11</v>
@@ -13506,55 +13508,55 @@
       <c r="C87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="77"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="88"/>
       <c r="F87" s="21"/>
       <c r="G87" s="4"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="62"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="82"/>
+      <c r="K87" s="83"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="1"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="77"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="88"/>
       <c r="F88" s="21"/>
       <c r="G88" s="4"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="62"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="83"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="77"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="88"/>
       <c r="F89" s="21"/>
       <c r="G89" s="4"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="62"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="82"/>
+      <c r="K89" s="83"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="1"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="77"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="88"/>
       <c r="F90" s="21"/>
       <c r="G90" s="4"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="62"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="82"/>
+      <c r="K90" s="83"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="40" t="s">
         <v>12</v>
@@ -13562,16 +13564,16 @@
       <c r="C91" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="90"/>
-      <c r="E91" s="91"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="21"/>
       <c r="G91" s="4"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="62"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="82"/>
+      <c r="K91" s="83"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="1" t="s">
         <v>13</v>
@@ -13579,16 +13581,16 @@
       <c r="C92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="90"/>
-      <c r="E92" s="91"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="21"/>
       <c r="G92" s="4"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="62"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="82"/>
+      <c r="K92" s="83"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="40" t="s">
         <v>14</v>
@@ -13596,16 +13598,16 @@
       <c r="C93" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="92"/>
-      <c r="E93" s="93"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="58"/>
       <c r="F93" s="21"/>
       <c r="G93" s="4"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="62"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="82"/>
+      <c r="K93" s="83"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="27" t="s">
         <v>15</v>
@@ -13613,16 +13615,16 @@
       <c r="C94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="90"/>
-      <c r="E94" s="91"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="60"/>
       <c r="F94" s="21"/>
       <c r="G94" s="4"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="62"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="82"/>
+      <c r="K94" s="83"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="40" t="s">
         <v>16</v>
@@ -13630,16 +13632,16 @@
       <c r="C95" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="94"/>
-      <c r="E95" s="95"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="62"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="62"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="82"/>
+      <c r="K95" s="83"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="42" t="s">
         <v>17</v>
@@ -13647,16 +13649,16 @@
       <c r="C96" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="58"/>
-      <c r="E96" s="59"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="64"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="2"/>
-      <c r="I96" s="60"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="62"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="82"/>
+      <c r="K96" s="83"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="8"/>
       <c r="C97" s="10"/>
@@ -13665,37 +13667,37 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="63"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="65"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="86"/>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="66" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="80" t="s">
+      <c r="B104" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="86" t="s">
+      <c r="C104" s="68"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="87"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="66" t="s">
+      <c r="G104" s="74"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J104" s="67"/>
-      <c r="K104" s="68"/>
+      <c r="J104" s="76"/>
+      <c r="K104" s="77"/>
     </row>
-    <row r="105" spans="1:11" ht="24">
-      <c r="A105" s="69"/>
-      <c r="B105" s="83"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="85"/>
+    <row r="105" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A105" s="66"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="72"/>
       <c r="F105" s="37" t="s">
         <v>6</v>
       </c>
@@ -13705,11 +13707,11 @@
       <c r="H105" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I105" s="69"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="71"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="79"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>7</v>
       </c>
@@ -13719,29 +13721,29 @@
       <c r="C106" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D106" s="72"/>
-      <c r="E106" s="73"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="90"/>
       <c r="F106" s="32"/>
       <c r="G106" s="15"/>
       <c r="H106" s="30"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="59"/>
+      <c r="I106" s="80"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="64"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="8"/>
       <c r="C107" s="10"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="75"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="92"/>
       <c r="F107" s="21"/>
       <c r="G107" s="4"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="60"/>
-      <c r="J107" s="61"/>
-      <c r="K107" s="62"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="82"/>
+      <c r="K107" s="83"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -13749,55 +13751,55 @@
       <c r="C108" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="76"/>
-      <c r="E108" s="77"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="88"/>
       <c r="F108" s="21"/>
       <c r="G108" s="4"/>
       <c r="H108" s="2"/>
-      <c r="I108" s="60"/>
-      <c r="J108" s="61"/>
-      <c r="K108" s="62"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="82"/>
+      <c r="K108" s="83"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="77"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="88"/>
       <c r="F109" s="21"/>
       <c r="G109" s="4"/>
       <c r="H109" s="2"/>
-      <c r="I109" s="60"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="62"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="82"/>
+      <c r="K109" s="83"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="77"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="88"/>
       <c r="F110" s="21"/>
       <c r="G110" s="4"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="60"/>
-      <c r="J110" s="61"/>
-      <c r="K110" s="62"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="82"/>
+      <c r="K110" s="83"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="1"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="77"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="21"/>
       <c r="G111" s="4"/>
       <c r="H111" s="2"/>
-      <c r="I111" s="60"/>
-      <c r="J111" s="61"/>
-      <c r="K111" s="62"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="83"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="40" t="s">
         <v>12</v>
@@ -13805,16 +13807,16 @@
       <c r="C112" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="90"/>
-      <c r="E112" s="91"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="60"/>
       <c r="F112" s="21"/>
       <c r="G112" s="4"/>
       <c r="H112" s="2"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="62"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="82"/>
+      <c r="K112" s="83"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="1" t="s">
         <v>13</v>
@@ -13822,16 +13824,16 @@
       <c r="C113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="90"/>
-      <c r="E113" s="91"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="60"/>
       <c r="F113" s="21"/>
       <c r="G113" s="4"/>
       <c r="H113" s="2"/>
-      <c r="I113" s="60"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="62"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="82"/>
+      <c r="K113" s="83"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="40" t="s">
         <v>14</v>
@@ -13839,16 +13841,16 @@
       <c r="C114" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="92"/>
-      <c r="E114" s="93"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="58"/>
       <c r="F114" s="21"/>
       <c r="G114" s="4"/>
       <c r="H114" s="2"/>
-      <c r="I114" s="60"/>
-      <c r="J114" s="61"/>
-      <c r="K114" s="62"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="82"/>
+      <c r="K114" s="83"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="27" t="s">
         <v>15</v>
@@ -13856,16 +13858,16 @@
       <c r="C115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="90"/>
-      <c r="E115" s="91"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="60"/>
       <c r="F115" s="21"/>
       <c r="G115" s="4"/>
       <c r="H115" s="2"/>
-      <c r="I115" s="60"/>
-      <c r="J115" s="61"/>
-      <c r="K115" s="62"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="82"/>
+      <c r="K115" s="83"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="40" t="s">
         <v>16</v>
@@ -13873,16 +13875,16 @@
       <c r="C116" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="94"/>
-      <c r="E116" s="95"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="62"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="2"/>
-      <c r="I116" s="60"/>
-      <c r="J116" s="61"/>
-      <c r="K116" s="62"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="82"/>
+      <c r="K116" s="83"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="42" t="s">
         <v>17</v>
@@ -13890,16 +13892,16 @@
       <c r="C117" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="59"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="64"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="2"/>
-      <c r="I117" s="60"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="62"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="82"/>
+      <c r="K117" s="83"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="8"/>
       <c r="C118" s="10"/>
@@ -13908,11 +13910,11 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="63"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="65"/>
+      <c r="I118" s="84"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="86"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>8</v>
       </c>
@@ -13922,29 +13924,29 @@
       <c r="C119" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="72"/>
-      <c r="E119" s="73"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="90"/>
       <c r="F119" s="32"/>
       <c r="G119" s="15"/>
       <c r="H119" s="30"/>
-      <c r="I119" s="57"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="59"/>
+      <c r="I119" s="80"/>
+      <c r="J119" s="63"/>
+      <c r="K119" s="64"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="8"/>
       <c r="C120" s="10"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="75"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="92"/>
       <c r="F120" s="21"/>
       <c r="G120" s="4"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="60"/>
-      <c r="J120" s="61"/>
-      <c r="K120" s="62"/>
+      <c r="I120" s="81"/>
+      <c r="J120" s="82"/>
+      <c r="K120" s="83"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="1" t="s">
         <v>11</v>
@@ -13952,55 +13954,55 @@
       <c r="C121" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="76"/>
-      <c r="E121" s="77"/>
+      <c r="D121" s="87"/>
+      <c r="E121" s="88"/>
       <c r="F121" s="21"/>
       <c r="G121" s="4"/>
       <c r="H121" s="2"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="62"/>
+      <c r="I121" s="81"/>
+      <c r="J121" s="82"/>
+      <c r="K121" s="83"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="1"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="77"/>
+      <c r="D122" s="87"/>
+      <c r="E122" s="88"/>
       <c r="F122" s="21"/>
       <c r="G122" s="4"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="60"/>
-      <c r="J122" s="61"/>
-      <c r="K122" s="62"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="82"/>
+      <c r="K122" s="83"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="1"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="77"/>
+      <c r="D123" s="87"/>
+      <c r="E123" s="88"/>
       <c r="F123" s="21"/>
       <c r="G123" s="4"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="60"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="62"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="82"/>
+      <c r="K123" s="83"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="1"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="76"/>
-      <c r="E124" s="77"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="88"/>
       <c r="F124" s="21"/>
       <c r="G124" s="4"/>
       <c r="H124" s="2"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="62"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="82"/>
+      <c r="K124" s="83"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="40" t="s">
         <v>12</v>
@@ -14008,16 +14010,16 @@
       <c r="C125" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="90"/>
-      <c r="E125" s="91"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="60"/>
       <c r="F125" s="21"/>
       <c r="G125" s="4"/>
       <c r="H125" s="2"/>
-      <c r="I125" s="60"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="62"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="82"/>
+      <c r="K125" s="83"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="1" t="s">
         <v>13</v>
@@ -14025,16 +14027,16 @@
       <c r="C126" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="90"/>
-      <c r="E126" s="91"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="60"/>
       <c r="F126" s="21"/>
       <c r="G126" s="4"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="60"/>
-      <c r="J126" s="61"/>
-      <c r="K126" s="62"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="82"/>
+      <c r="K126" s="83"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="40" t="s">
         <v>14</v>
@@ -14042,16 +14044,16 @@
       <c r="C127" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="92"/>
-      <c r="E127" s="93"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="58"/>
       <c r="F127" s="21"/>
       <c r="G127" s="4"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="60"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="62"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="82"/>
+      <c r="K127" s="83"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="27" t="s">
         <v>15</v>
@@ -14059,16 +14061,16 @@
       <c r="C128" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="90"/>
-      <c r="E128" s="91"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="60"/>
       <c r="F128" s="21"/>
       <c r="G128" s="4"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="60"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="62"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="82"/>
+      <c r="K128" s="83"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="40" t="s">
         <v>16</v>
@@ -14076,16 +14078,16 @@
       <c r="C129" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="94"/>
-      <c r="E129" s="95"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="62"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="61"/>
-      <c r="K129" s="62"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="82"/>
+      <c r="K129" s="83"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="42" t="s">
         <v>17</v>
@@ -14093,16 +14095,16 @@
       <c r="C130" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="58"/>
-      <c r="E130" s="59"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="64"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="60"/>
-      <c r="J130" s="61"/>
-      <c r="K130" s="62"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="82"/>
+      <c r="K130" s="83"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="22"/>
       <c r="B131" s="8"/>
       <c r="C131" s="10"/>
@@ -14111,37 +14113,37 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="63"/>
-      <c r="J131" s="64"/>
-      <c r="K131" s="65"/>
+      <c r="I131" s="84"/>
+      <c r="J131" s="85"/>
+      <c r="K131" s="86"/>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="66" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="80" t="s">
+      <c r="B138" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="81"/>
-      <c r="D138" s="81"/>
-      <c r="E138" s="82"/>
-      <c r="F138" s="86" t="s">
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="87"/>
-      <c r="H138" s="88"/>
-      <c r="I138" s="66" t="s">
+      <c r="G138" s="74"/>
+      <c r="H138" s="75"/>
+      <c r="I138" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="J138" s="67"/>
-      <c r="K138" s="68"/>
+      <c r="J138" s="76"/>
+      <c r="K138" s="77"/>
     </row>
-    <row r="139" spans="1:11" ht="24">
-      <c r="A139" s="69"/>
-      <c r="B139" s="83"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="84"/>
-      <c r="E139" s="85"/>
+    <row r="139" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A139" s="66"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="72"/>
       <c r="F139" s="37" t="s">
         <v>6</v>
       </c>
@@ -14151,11 +14153,11 @@
       <c r="H139" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I139" s="69"/>
-      <c r="J139" s="70"/>
-      <c r="K139" s="71"/>
+      <c r="I139" s="66"/>
+      <c r="J139" s="78"/>
+      <c r="K139" s="79"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>9</v>
       </c>
@@ -14165,29 +14167,29 @@
       <c r="C140" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="72"/>
-      <c r="E140" s="73"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="90"/>
       <c r="F140" s="32"/>
       <c r="G140" s="15"/>
       <c r="H140" s="30"/>
-      <c r="I140" s="57"/>
-      <c r="J140" s="58"/>
-      <c r="K140" s="59"/>
+      <c r="I140" s="80"/>
+      <c r="J140" s="63"/>
+      <c r="K140" s="64"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="8"/>
       <c r="C141" s="10"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="75"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="92"/>
       <c r="F141" s="21"/>
       <c r="G141" s="4"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="60"/>
-      <c r="J141" s="61"/>
-      <c r="K141" s="62"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="82"/>
+      <c r="K141" s="83"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="1" t="s">
         <v>11</v>
@@ -14195,55 +14197,55 @@
       <c r="C142" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="76"/>
-      <c r="E142" s="77"/>
+      <c r="D142" s="87"/>
+      <c r="E142" s="88"/>
       <c r="F142" s="21"/>
       <c r="G142" s="4"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="60"/>
-      <c r="J142" s="61"/>
-      <c r="K142" s="62"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="82"/>
+      <c r="K142" s="83"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="76"/>
-      <c r="E143" s="77"/>
+      <c r="D143" s="87"/>
+      <c r="E143" s="88"/>
       <c r="F143" s="21"/>
       <c r="G143" s="4"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="60"/>
-      <c r="J143" s="61"/>
-      <c r="K143" s="62"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="82"/>
+      <c r="K143" s="83"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="76"/>
-      <c r="E144" s="77"/>
+      <c r="D144" s="87"/>
+      <c r="E144" s="88"/>
       <c r="F144" s="21"/>
       <c r="G144" s="4"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="61"/>
-      <c r="K144" s="62"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="82"/>
+      <c r="K144" s="83"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="76"/>
-      <c r="E145" s="77"/>
+      <c r="D145" s="87"/>
+      <c r="E145" s="88"/>
       <c r="F145" s="21"/>
       <c r="G145" s="4"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="61"/>
-      <c r="K145" s="62"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="83"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="40" t="s">
         <v>12</v>
@@ -14251,16 +14253,16 @@
       <c r="C146" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="90"/>
-      <c r="E146" s="91"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="60"/>
       <c r="F146" s="21"/>
       <c r="G146" s="4"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="60"/>
-      <c r="J146" s="61"/>
-      <c r="K146" s="62"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="82"/>
+      <c r="K146" s="83"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="1" t="s">
         <v>13</v>
@@ -14268,16 +14270,16 @@
       <c r="C147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="90"/>
-      <c r="E147" s="91"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="60"/>
       <c r="F147" s="21"/>
       <c r="G147" s="4"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="60"/>
-      <c r="J147" s="61"/>
-      <c r="K147" s="62"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="82"/>
+      <c r="K147" s="83"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="40" t="s">
         <v>14</v>
@@ -14285,16 +14287,16 @@
       <c r="C148" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D148" s="92"/>
-      <c r="E148" s="93"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="58"/>
       <c r="F148" s="21"/>
       <c r="G148" s="4"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="60"/>
-      <c r="J148" s="61"/>
-      <c r="K148" s="62"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="83"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="27" t="s">
         <v>15</v>
@@ -14302,16 +14304,16 @@
       <c r="C149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D149" s="90"/>
-      <c r="E149" s="91"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="60"/>
       <c r="F149" s="21"/>
       <c r="G149" s="4"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="61"/>
-      <c r="K149" s="62"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="82"/>
+      <c r="K149" s="83"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="40" t="s">
         <v>16</v>
@@ -14319,16 +14321,16 @@
       <c r="C150" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D150" s="94"/>
-      <c r="E150" s="95"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="62"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="2"/>
-      <c r="I150" s="60"/>
-      <c r="J150" s="61"/>
-      <c r="K150" s="62"/>
+      <c r="I150" s="81"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="83"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="42" t="s">
         <v>17</v>
@@ -14336,16 +14338,16 @@
       <c r="C151" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="58"/>
-      <c r="E151" s="59"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="64"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="61"/>
-      <c r="K151" s="62"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="83"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="22"/>
       <c r="B152" s="8"/>
       <c r="C152" s="10"/>
@@ -14354,11 +14356,11 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="63"/>
-      <c r="J152" s="64"/>
-      <c r="K152" s="65"/>
+      <c r="I152" s="84"/>
+      <c r="J152" s="85"/>
+      <c r="K152" s="86"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>10</v>
       </c>
@@ -14368,29 +14370,29 @@
       <c r="C153" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D153" s="72"/>
-      <c r="E153" s="73"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="90"/>
       <c r="F153" s="32"/>
       <c r="G153" s="15"/>
       <c r="H153" s="30"/>
-      <c r="I153" s="57"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="59"/>
+      <c r="I153" s="80"/>
+      <c r="J153" s="63"/>
+      <c r="K153" s="64"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="8"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="75"/>
+      <c r="D154" s="91"/>
+      <c r="E154" s="92"/>
       <c r="F154" s="21"/>
       <c r="G154" s="4"/>
       <c r="H154" s="12"/>
-      <c r="I154" s="60"/>
-      <c r="J154" s="61"/>
-      <c r="K154" s="62"/>
+      <c r="I154" s="81"/>
+      <c r="J154" s="82"/>
+      <c r="K154" s="83"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="1" t="s">
         <v>11</v>
@@ -14398,55 +14400,55 @@
       <c r="C155" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D155" s="76"/>
-      <c r="E155" s="77"/>
+      <c r="D155" s="87"/>
+      <c r="E155" s="88"/>
       <c r="F155" s="21"/>
       <c r="G155" s="4"/>
       <c r="H155" s="2"/>
-      <c r="I155" s="60"/>
-      <c r="J155" s="61"/>
-      <c r="K155" s="62"/>
+      <c r="I155" s="81"/>
+      <c r="J155" s="82"/>
+      <c r="K155" s="83"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="1"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="77"/>
+      <c r="D156" s="87"/>
+      <c r="E156" s="88"/>
       <c r="F156" s="21"/>
       <c r="G156" s="4"/>
       <c r="H156" s="2"/>
-      <c r="I156" s="60"/>
-      <c r="J156" s="61"/>
-      <c r="K156" s="62"/>
+      <c r="I156" s="81"/>
+      <c r="J156" s="82"/>
+      <c r="K156" s="83"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="77"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="88"/>
       <c r="F157" s="21"/>
       <c r="G157" s="4"/>
       <c r="H157" s="2"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="61"/>
-      <c r="K157" s="62"/>
+      <c r="I157" s="81"/>
+      <c r="J157" s="82"/>
+      <c r="K157" s="83"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="77"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="88"/>
       <c r="F158" s="21"/>
       <c r="G158" s="4"/>
       <c r="H158" s="2"/>
-      <c r="I158" s="60"/>
-      <c r="J158" s="61"/>
-      <c r="K158" s="62"/>
+      <c r="I158" s="81"/>
+      <c r="J158" s="82"/>
+      <c r="K158" s="83"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="40" t="s">
         <v>12</v>
@@ -14454,16 +14456,16 @@
       <c r="C159" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D159" s="90"/>
-      <c r="E159" s="91"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="60"/>
       <c r="F159" s="21"/>
       <c r="G159" s="4"/>
       <c r="H159" s="2"/>
-      <c r="I159" s="60"/>
-      <c r="J159" s="61"/>
-      <c r="K159" s="62"/>
+      <c r="I159" s="81"/>
+      <c r="J159" s="82"/>
+      <c r="K159" s="83"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="1" t="s">
         <v>13</v>
@@ -14471,16 +14473,16 @@
       <c r="C160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="90"/>
-      <c r="E160" s="91"/>
+      <c r="D160" s="59"/>
+      <c r="E160" s="60"/>
       <c r="F160" s="21"/>
       <c r="G160" s="4"/>
       <c r="H160" s="2"/>
-      <c r="I160" s="60"/>
-      <c r="J160" s="61"/>
-      <c r="K160" s="62"/>
+      <c r="I160" s="81"/>
+      <c r="J160" s="82"/>
+      <c r="K160" s="83"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="40" t="s">
         <v>14</v>
@@ -14488,16 +14490,16 @@
       <c r="C161" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="92"/>
-      <c r="E161" s="93"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="58"/>
       <c r="F161" s="21"/>
       <c r="G161" s="4"/>
       <c r="H161" s="2"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="61"/>
-      <c r="K161" s="62"/>
+      <c r="I161" s="81"/>
+      <c r="J161" s="82"/>
+      <c r="K161" s="83"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="27" t="s">
         <v>15</v>
@@ -14505,16 +14507,16 @@
       <c r="C162" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="90"/>
-      <c r="E162" s="91"/>
+      <c r="D162" s="59"/>
+      <c r="E162" s="60"/>
       <c r="F162" s="21"/>
       <c r="G162" s="4"/>
       <c r="H162" s="2"/>
-      <c r="I162" s="60"/>
-      <c r="J162" s="61"/>
-      <c r="K162" s="62"/>
+      <c r="I162" s="81"/>
+      <c r="J162" s="82"/>
+      <c r="K162" s="83"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="40" t="s">
         <v>16</v>
@@ -14522,16 +14524,16 @@
       <c r="C163" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="94"/>
-      <c r="E163" s="95"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="62"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="2"/>
-      <c r="I163" s="60"/>
-      <c r="J163" s="61"/>
-      <c r="K163" s="62"/>
+      <c r="I163" s="81"/>
+      <c r="J163" s="82"/>
+      <c r="K163" s="83"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="42" t="s">
         <v>17</v>
@@ -14539,16 +14541,16 @@
       <c r="C164" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D164" s="58"/>
-      <c r="E164" s="59"/>
+      <c r="D164" s="63"/>
+      <c r="E164" s="64"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="2"/>
-      <c r="I164" s="60"/>
-      <c r="J164" s="61"/>
-      <c r="K164" s="62"/>
+      <c r="I164" s="81"/>
+      <c r="J164" s="82"/>
+      <c r="K164" s="83"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="22"/>
       <c r="B165" s="8"/>
       <c r="C165" s="10"/>
@@ -14557,17 +14559,88 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="9"/>
-      <c r="I165" s="63"/>
-      <c r="J165" s="64"/>
-      <c r="K165" s="65"/>
+      <c r="I165" s="84"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="I38:K50"/>
+    <mergeCell ref="I51:K63"/>
+    <mergeCell ref="I36:K37"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I8:K20"/>
+    <mergeCell ref="I21:K33"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D10:E13"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D85:E86"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="I72:K84"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D108:E111"/>
+    <mergeCell ref="D72:E73"/>
+    <mergeCell ref="D74:E77"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D153:E154"/>
+    <mergeCell ref="I153:K165"/>
+    <mergeCell ref="D155:E158"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="I140:K152"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D140:E141"/>
+    <mergeCell ref="D142:E145"/>
+    <mergeCell ref="D119:E120"/>
+    <mergeCell ref="I119:K131"/>
+    <mergeCell ref="D121:E124"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
     <mergeCell ref="A138:A139"/>
     <mergeCell ref="B138:E139"/>
     <mergeCell ref="F138:H138"/>
@@ -14584,82 +14657,11 @@
     <mergeCell ref="D87:E90"/>
     <mergeCell ref="D106:E107"/>
     <mergeCell ref="I106:K118"/>
-    <mergeCell ref="D119:E120"/>
-    <mergeCell ref="I119:K131"/>
-    <mergeCell ref="D121:E124"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D140:E141"/>
-    <mergeCell ref="D142:E145"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D153:E154"/>
-    <mergeCell ref="I153:K165"/>
-    <mergeCell ref="D155:E158"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="I140:K152"/>
-    <mergeCell ref="D85:E86"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="I72:K84"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D108:E111"/>
-    <mergeCell ref="D72:E73"/>
-    <mergeCell ref="D74:E77"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I8:K20"/>
-    <mergeCell ref="I21:K33"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D10:E13"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="I38:K50"/>
-    <mergeCell ref="I51:K63"/>
-    <mergeCell ref="I36:K37"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E26"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D91:E91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
